--- a/DM/databank/banking/deal_management/DealManagement_Test_Stacking_39768.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_Stacking_39768.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="480">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1462,30 +1462,6 @@
     <t>Parent Customer Price List</t>
   </si>
   <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6681973320","dealId":"3938660107","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-01-22","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6681973320","dealId":"3938660107","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7688475125","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7688475126","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7688475127","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7680010759","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-21","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6681973320","dealId":"3938660107","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-01-22","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6681973320","dealId":"3938660107","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7688475131","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7688475132","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7688475133","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7680010761","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-02-21","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6324775662","dealId":"3938660107","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3578475137","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3578475138","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3578475139","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-02-20","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3570010763","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-01-22","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6324775662","dealId":"3938660107","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3578475137","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3578475138","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3578475139","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-02-20","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3570010763","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-01-22","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6324775662","dealId":"3938660107","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-01-22","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6324775662","dealId":"3938660107","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-01-22","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -1505,168 +1481,6 @@
 </t>
   </si>
   <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0988550304","dealId":"5934240268","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0988550304","dealId":"5934240268","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1568404791","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1568404792","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1568404793","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1560013546","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-03-04","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0988550304","dealId":"5934240268","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-02-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0988550304","dealId":"5934240268","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1568404797","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1568404798","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1568404799","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1560013548","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-03-04","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3799928347","dealId":"5934240268","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4208404803","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4208404804","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4208404805","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-03-03","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4200013550","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-02","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3799928347","dealId":"5934240268","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4208404803","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4208404804","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4208404805","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-03-03","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4200013550","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-02","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3799928347","dealId":"5934240268","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3799928347","dealId":"5934240268","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9804143072","dealId":"8677809611","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-04","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9804143072","dealId":"8677809611","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2638475804","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2638475805","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2638475806","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"2630017786","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-03-06","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9804143072","dealId":"8677809611","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-02-04","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9804143072","dealId":"8677809611","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2638475810","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2638475811","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2638475812","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"2630017788","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-03-06","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9246528978","dealId":"8677809611","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108475816","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108475817","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108475818","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-03-05","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"2100017790","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-04","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9246528978","dealId":"8677809611","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108475816","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108475817","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108475818","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-03-05","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"2100017790","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-04","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9246528978","dealId":"8677809611","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-04","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9246528978","dealId":"8677809611","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-04","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8402404831","dealId":"5220351481","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-07","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8402404831","dealId":"5220351481","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0618402084","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0618402085","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0618402086","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0610011970","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-03-09","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8402404831","dealId":"5220351481","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-02-07","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8402404831","dealId":"5220351481","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0618402090","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0618402091","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0618402092","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"0610011972","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-03-09","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0466081560","dealId":"5220351481","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0048402096","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0048402097","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0048402098","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-03-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0040011974","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0466081560","dealId":"5220351481","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0048402096","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0048402097","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0048402098","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-03-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0040011974","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0466081560","dealId":"5220351481","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-07","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0466081560","dealId":"5220351481","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-07","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2656040168","dealId":"8856951953","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2656040168","dealId":"8856951953","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9688425531","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9688425532","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9688425533","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"9680012945","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-03-12","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2656040168","dealId":"8856951953","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-02-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2656040168","dealId":"8856951953","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9688425537","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9688425538","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9688425539","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"9680012947","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-03-12","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0542494515","dealId":"8856951953","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4838425543","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4838425544","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4838425545","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-03-11","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4830012949","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-10","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0542494515","dealId":"8856951953","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4838425543","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4838425544","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4838425545","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-03-11","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4830012949","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-02-10","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0542494515","dealId":"8856951953","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0542494515","dealId":"8856951953","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-02-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3913466591","dealId":"2971889521","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3913466591","dealId":"2971889521","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3128575777","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3128575778","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3128575779","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3120013867","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-10","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3913466591","dealId":"2971889521","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-05-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3913466591","dealId":"2971889521","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3128575783","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3128575784","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3128575785","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"3120013869","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-10","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7021100298","dealId":"2971889521","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1988575789","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1988575790","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1988575791","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-06-09","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1980013871","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-11","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5009742815","dealId":"9337059337","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5009742815","dealId":"9337059337","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5868575804","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5868575805","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5868575806","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5860013876","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-06-10","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5009742815","dealId":"9337059337","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-05-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5009742815","dealId":"9337059337","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5868575810","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5868575811","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5868575812","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5860013878","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-06-10","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5834031933","dealId":"9337059337","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9518575816","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9518575817","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9518575818","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-06-09","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"9510013880","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-11","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5834031933","dealId":"9337059337","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9518575816","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9518575817","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9518575818","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-06-09","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"9510013880","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-05-11","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5834031933","dealId":"9337059337","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-05-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5834031933","dealId":"9337059337","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-05-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9752087274","dealId":"2312693319","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2312693319","modelId":"9752087274","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3740014310","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-02","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9752087274","dealId":"2312693319","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3748600480","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3748600481","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3748600482","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3740014310","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2312693319","modelId":"9752087274","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3740014311","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3748600480","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3748600481","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3748600482","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9752087274","dealId":"2312693319","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2312693319","modelId":"9752087274","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3740014312","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-02","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9752087274","dealId":"2312693319","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3748600486","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3748600487","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3748600488","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"3740014312","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2312693319","modelId":"9752087274","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3740014313","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3748600486","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3748600487","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3748600488","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7449211051","dealId":"2139564813","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
   </si>
   <si>
@@ -1713,6 +1527,9 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2139564813","modelId":"6413032125","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7490014324","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-02","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>DM_RATEVALUE</t>
   </si>
 </sst>
 </file>
@@ -2390,6 +2207,117 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2406,117 +2334,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2809,21 +2626,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN233"/>
+  <dimension ref="A1:DN234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="57.90625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
-    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
-    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="1" max="1" width="57.90625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="11" width="24.6328125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.26953125" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -3682,11 +3499,11 @@
       <c r="I20" s="14"/>
     </row>
     <row r="22" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="130" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
     </row>
     <row r="23" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
@@ -3740,24 +3557,24 @@
       </c>
     </row>
     <row r="27" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
       <c r="BM27" s="16"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="16"/>
@@ -6634,12 +6451,12 @@
       <c r="DM60" s="16"/>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="136" t="s">
+      <c r="A62" s="133" t="s">
         <v>255</v>
       </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="135"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6677,17 +6494,17 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="136" t="s">
+      <c r="A66" s="133" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="137"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="138"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="135"/>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
@@ -6761,11 +6578,11 @@
       <c r="I68" s="31"/>
       <c r="J68" s="41" t="str">
         <f t="shared" ref="J68:J79" ca="1" si="0">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K68" s="41" t="str">
         <f t="shared" ref="K68:K79" ca="1" si="1">TEXT(TODAY()-1,"MM-DD-YYYY")</f>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>168</v>
@@ -6805,11 +6622,11 @@
       <c r="I69" s="31"/>
       <c r="J69" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K69" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>168</v>
@@ -6849,11 +6666,11 @@
       <c r="I70" s="31"/>
       <c r="J70" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K70" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6893,11 +6710,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K71" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6937,11 +6754,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K72" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -6981,11 +6798,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K73" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -7025,11 +6842,11 @@
       <c r="I74" s="31"/>
       <c r="J74" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K74" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -7069,11 +6886,11 @@
       <c r="I75" s="31"/>
       <c r="J75" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K75" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -7113,11 +6930,11 @@
       <c r="I76" s="31"/>
       <c r="J76" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K76" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L76" s="32" t="s">
         <v>168</v>
@@ -7157,11 +6974,11 @@
       <c r="I77" s="31"/>
       <c r="J77" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K77" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L77" s="32" t="s">
         <v>168</v>
@@ -7201,11 +7018,11 @@
       <c r="I78" s="31"/>
       <c r="J78" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K78" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L78" s="32" t="s">
         <v>168</v>
@@ -7245,11 +7062,11 @@
       <c r="I79" s="31"/>
       <c r="J79" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K79" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>01-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L79" s="32" t="s">
         <v>168</v>
@@ -7265,27 +7082,27 @@
       </c>
     </row>
     <row r="81" spans="1:78" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="139" t="s">
+      <c r="A81" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="139"/>
-      <c r="C81" s="139"/>
-      <c r="D81" s="139"/>
-      <c r="E81" s="139"/>
-      <c r="F81" s="139"/>
-      <c r="G81" s="139"/>
-      <c r="H81" s="139"/>
-      <c r="I81" s="139"/>
-      <c r="J81" s="139"/>
-      <c r="K81" s="139"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="136"/>
+      <c r="G81" s="136"/>
+      <c r="H81" s="136"/>
+      <c r="I81" s="136"/>
+      <c r="J81" s="136"/>
+      <c r="K81" s="136"/>
     </row>
     <row r="83" spans="1:78" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="140" t="s">
+      <c r="A83" s="137" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="140"/>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
+      <c r="B83" s="137"/>
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
@@ -7414,33 +7231,33 @@
       <c r="S88" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="T88" s="104" t="s">
+      <c r="T88" s="141" t="s">
         <v>286</v>
       </c>
-      <c r="U88" s="105"/>
-      <c r="V88" s="106"/>
-      <c r="W88" s="104" t="s">
+      <c r="U88" s="142"/>
+      <c r="V88" s="143"/>
+      <c r="W88" s="141" t="s">
         <v>287</v>
       </c>
-      <c r="X88" s="106"/>
+      <c r="X88" s="143"/>
       <c r="Y88" s="48"/>
-      <c r="Z88" s="101" t="s">
+      <c r="Z88" s="138" t="s">
         <v>288</v>
       </c>
-      <c r="AA88" s="102"/>
-      <c r="AB88" s="102"/>
-      <c r="AC88" s="102"/>
-      <c r="AD88" s="102"/>
-      <c r="AE88" s="102"/>
-      <c r="AF88" s="103"/>
-      <c r="AG88" s="101" t="s">
+      <c r="AA88" s="139"/>
+      <c r="AB88" s="139"/>
+      <c r="AC88" s="139"/>
+      <c r="AD88" s="139"/>
+      <c r="AE88" s="139"/>
+      <c r="AF88" s="140"/>
+      <c r="AG88" s="138" t="s">
         <v>289</v>
       </c>
-      <c r="AH88" s="102"/>
-      <c r="AI88" s="102"/>
-      <c r="AJ88" s="102"/>
-      <c r="AK88" s="102"/>
-      <c r="AL88" s="103"/>
+      <c r="AH88" s="139"/>
+      <c r="AI88" s="139"/>
+      <c r="AJ88" s="139"/>
+      <c r="AK88" s="139"/>
+      <c r="AL88" s="140"/>
       <c r="AM88" s="49"/>
       <c r="AN88" s="50"/>
       <c r="AO88" s="50"/>
@@ -7626,11 +7443,11 @@
       </c>
       <c r="G90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="H90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="I90" s="55"/>
       <c r="J90" s="55">
@@ -7873,7 +7690,7 @@
       </c>
       <c r="C94" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-18</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>153</v>
@@ -7932,7 +7749,7 @@
       </c>
       <c r="C95" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-18</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>153</v>
@@ -7983,76 +7800,76 @@
       <c r="BZ95" s="51"/>
     </row>
     <row r="97" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="114" t="s">
+      <c r="A97" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="B97" s="115"/>
-      <c r="C97" s="115"/>
-      <c r="D97" s="115"/>
-      <c r="E97" s="115"/>
-      <c r="F97" s="115"/>
-      <c r="G97" s="115"/>
-      <c r="H97" s="115"/>
-      <c r="I97" s="115"/>
-      <c r="J97" s="115"/>
-      <c r="K97" s="115"/>
-      <c r="L97" s="115"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="105"/>
+      <c r="K97" s="105"/>
+      <c r="L97" s="105"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A98" s="128" t="s">
+      <c r="A98" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="128" t="s">
+      <c r="B98" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="C98" s="116" t="s">
+      <c r="C98" s="120" t="s">
         <v>344</v>
       </c>
-      <c r="D98" s="125" t="s">
+      <c r="D98" s="123" t="s">
         <v>345</v>
       </c>
-      <c r="E98" s="109" t="s">
+      <c r="E98" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="F98" s="109"/>
-      <c r="G98" s="109"/>
-      <c r="H98" s="109"/>
-      <c r="I98" s="122" t="s">
+      <c r="F98" s="126"/>
+      <c r="G98" s="126"/>
+      <c r="H98" s="126"/>
+      <c r="I98" s="127" t="s">
         <v>346</v>
       </c>
-      <c r="J98" s="122"/>
-      <c r="K98" s="122"/>
-      <c r="L98" s="122"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="127"/>
+      <c r="L98" s="127"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="129"/>
-      <c r="B99" s="129"/>
-      <c r="C99" s="117"/>
-      <c r="D99" s="126"/>
-      <c r="E99" s="123" t="s">
+      <c r="A99" s="118"/>
+      <c r="B99" s="118"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="F99" s="124"/>
-      <c r="G99" s="120" t="s">
+      <c r="F99" s="111"/>
+      <c r="G99" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="H99" s="121"/>
-      <c r="I99" s="123" t="s">
+      <c r="H99" s="114"/>
+      <c r="I99" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="J99" s="124"/>
-      <c r="K99" s="120" t="s">
+      <c r="J99" s="111"/>
+      <c r="K99" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="L99" s="121"/>
+      <c r="L99" s="114"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="130"/>
-      <c r="B100" s="130" t="s">
+      <c r="A100" s="119"/>
+      <c r="B100" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="118"/>
-      <c r="D100" s="127"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="125"/>
       <c r="E100" s="64" t="s">
         <v>348</v>
       </c>
@@ -8127,61 +7944,61 @@
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A103" s="114" t="s">
+      <c r="A103" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="B103" s="115"/>
-      <c r="C103" s="115"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="115"/>
-      <c r="F103" s="115"/>
-      <c r="G103" s="115"/>
-      <c r="H103" s="115"/>
-      <c r="I103" s="115"/>
-      <c r="J103" s="115"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="62"/>
       <c r="B104" s="63"/>
-      <c r="C104" s="119" t="s">
+      <c r="C104" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="D104" s="119"/>
-      <c r="E104" s="119"/>
-      <c r="F104" s="119"/>
-      <c r="G104" s="119"/>
-      <c r="H104" s="119"/>
-      <c r="I104" s="119"/>
-      <c r="J104" s="119"/>
-      <c r="K104" s="119"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="106"/>
+      <c r="F104" s="106"/>
+      <c r="G104" s="106"/>
+      <c r="H104" s="106"/>
+      <c r="I104" s="106"/>
+      <c r="J104" s="106"/>
+      <c r="K104" s="106"/>
       <c r="Z104" s="69"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="B105" s="110" t="s">
+      <c r="B105" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="C105" s="123" t="s">
+      <c r="C105" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="D105" s="131"/>
-      <c r="E105" s="131"/>
-      <c r="F105" s="124"/>
-      <c r="G105" s="120" t="s">
+      <c r="D105" s="110"/>
+      <c r="E105" s="110"/>
+      <c r="F105" s="111"/>
+      <c r="G105" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="H105" s="132"/>
-      <c r="I105" s="132"/>
-      <c r="J105" s="121"/>
-      <c r="K105" s="112" t="s">
+      <c r="H105" s="113"/>
+      <c r="I105" s="113"/>
+      <c r="J105" s="114"/>
+      <c r="K105" s="115" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="111"/>
-      <c r="B106" s="111"/>
+      <c r="A106" s="108"/>
+      <c r="B106" s="108"/>
       <c r="C106" s="64" t="s">
         <v>337</v>
       </c>
@@ -8206,7 +8023,7 @@
       <c r="J106" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="K106" s="113"/>
+      <c r="K106" s="116"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="55" t="s">
@@ -8317,7 +8134,7 @@
       <c r="I111" s="72"/>
       <c r="J111" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K111" s="73">
         <v>234</v>
@@ -8326,27 +8143,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A113" s="107" t="s">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A113" s="128" t="s">
         <v>398</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
-      <c r="G113" s="108"/>
-      <c r="H113" s="108"/>
-      <c r="I113" s="108"/>
-      <c r="J113" s="108"/>
-      <c r="K113" s="108"/>
-      <c r="L113" s="108"/>
-      <c r="M113" s="108"/>
-      <c r="N113" s="108"/>
-      <c r="O113" s="108"/>
-      <c r="P113" s="108"/>
-      <c r="Q113" s="108"/>
-      <c r="R113" s="108"/>
+      <c r="B113" s="129"/>
+      <c r="C113" s="129"/>
+      <c r="D113" s="129"/>
+      <c r="E113" s="129"/>
+      <c r="F113" s="129"/>
+      <c r="G113" s="129"/>
+      <c r="H113" s="129"/>
+      <c r="I113" s="129"/>
+      <c r="J113" s="129"/>
+      <c r="K113" s="129"/>
+      <c r="L113" s="129"/>
+      <c r="M113" s="129"/>
+      <c r="N113" s="129"/>
+      <c r="O113" s="129"/>
+      <c r="P113" s="129"/>
+      <c r="Q113" s="129"/>
+      <c r="R113" s="129"/>
       <c r="S113" s="79"/>
       <c r="T113" s="79"/>
       <c r="U113" s="79"/>
@@ -8356,7 +8173,7 @@
       <c r="Y113" s="79"/>
       <c r="Z113" s="79"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A114" s="74" t="s">
         <v>365</v>
       </c>
@@ -8436,7 +8253,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="75" t="s">
         <v>207</v>
       </c>
@@ -8446,7 +8263,7 @@
       </c>
       <c r="D115" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E115" s="78"/>
       <c r="F115" s="78"/>
@@ -8501,7 +8318,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="116" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="75" t="s">
         <v>207</v>
       </c>
@@ -8511,7 +8328,7 @@
       </c>
       <c r="D116" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E116" s="78"/>
       <c r="F116" s="78"/>
@@ -8567,7 +8384,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="75" t="s">
         <v>207</v>
       </c>
@@ -8577,7 +8394,7 @@
       </c>
       <c r="D117" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E117" s="76"/>
       <c r="F117" s="76" t="s">
@@ -8621,13 +8438,13 @@
       </c>
       <c r="Z117" s="76"/>
       <c r="AU117" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="AV117" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="118" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="75" t="s">
         <v>207</v>
       </c>
@@ -8637,7 +8454,7 @@
       </c>
       <c r="D118" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-03-03</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E118" s="81"/>
       <c r="F118" s="81" t="s">
@@ -8681,33 +8498,33 @@
       </c>
       <c r="Z118" s="81"/>
       <c r="AU118" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="AV118" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A120" s="107" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A120" s="128" t="s">
         <v>397</v>
       </c>
-      <c r="B120" s="108"/>
-      <c r="C120" s="108"/>
-      <c r="D120" s="108"/>
-      <c r="E120" s="108"/>
-      <c r="F120" s="108"/>
-      <c r="G120" s="108"/>
-      <c r="H120" s="108"/>
-      <c r="I120" s="108"/>
-      <c r="J120" s="108"/>
-      <c r="K120" s="108"/>
-      <c r="L120" s="108"/>
-      <c r="M120" s="108"/>
-      <c r="N120" s="108"/>
-      <c r="O120" s="108"/>
-      <c r="P120" s="108"/>
-      <c r="Q120" s="108"/>
-      <c r="R120" s="108"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="129"/>
+      <c r="D120" s="129"/>
+      <c r="E120" s="129"/>
+      <c r="F120" s="129"/>
+      <c r="G120" s="129"/>
+      <c r="H120" s="129"/>
+      <c r="I120" s="129"/>
+      <c r="J120" s="129"/>
+      <c r="K120" s="129"/>
+      <c r="L120" s="129"/>
+      <c r="M120" s="129"/>
+      <c r="N120" s="129"/>
+      <c r="O120" s="129"/>
+      <c r="P120" s="129"/>
+      <c r="Q120" s="129"/>
+      <c r="R120" s="129"/>
       <c r="S120" s="80"/>
       <c r="T120" s="80"/>
       <c r="U120" s="80"/>
@@ -8717,7 +8534,7 @@
       <c r="Y120" s="80"/>
       <c r="Z120" s="80"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A121" s="74" t="s">
         <v>365</v>
       </c>
@@ -8797,7 +8614,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="75" t="s">
         <v>214</v>
       </c>
@@ -8807,7 +8624,7 @@
       </c>
       <c r="D122" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E122" s="78"/>
       <c r="F122" s="78"/>
@@ -8862,7 +8679,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="123" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="75" t="s">
         <v>214</v>
       </c>
@@ -8872,7 +8689,7 @@
       </c>
       <c r="D123" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E123" s="78"/>
       <c r="F123" s="78"/>
@@ -8928,7 +8745,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="124" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="75" t="s">
         <v>214</v>
       </c>
@@ -8938,7 +8755,7 @@
       </c>
       <c r="D124" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E124" s="76"/>
       <c r="F124" s="76" t="s">
@@ -8982,13 +8799,13 @@
       </c>
       <c r="Z124" s="76"/>
       <c r="AU124" t="s">
-        <v>529</v>
+        <v>467</v>
       </c>
       <c r="AV124" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="125" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="75" t="s">
         <v>214</v>
       </c>
@@ -8998,7 +8815,7 @@
       </c>
       <c r="D125" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-03-03</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E125" s="81"/>
       <c r="F125" s="81" t="s">
@@ -9042,33 +8859,33 @@
       </c>
       <c r="Z125" s="81"/>
       <c r="AU125" t="s">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="AV125" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A127" s="107" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A127" s="128" t="s">
         <v>399</v>
       </c>
-      <c r="B127" s="108"/>
-      <c r="C127" s="108"/>
-      <c r="D127" s="108"/>
-      <c r="E127" s="108"/>
-      <c r="F127" s="108"/>
-      <c r="G127" s="108"/>
-      <c r="H127" s="108"/>
-      <c r="I127" s="108"/>
-      <c r="J127" s="108"/>
-      <c r="K127" s="108"/>
-      <c r="L127" s="108"/>
-      <c r="M127" s="108"/>
-      <c r="N127" s="108"/>
-      <c r="O127" s="108"/>
-      <c r="P127" s="108"/>
-      <c r="Q127" s="108"/>
-      <c r="R127" s="108"/>
+      <c r="B127" s="129"/>
+      <c r="C127" s="129"/>
+      <c r="D127" s="129"/>
+      <c r="E127" s="129"/>
+      <c r="F127" s="129"/>
+      <c r="G127" s="129"/>
+      <c r="H127" s="129"/>
+      <c r="I127" s="129"/>
+      <c r="J127" s="129"/>
+      <c r="K127" s="129"/>
+      <c r="L127" s="129"/>
+      <c r="M127" s="129"/>
+      <c r="N127" s="129"/>
+      <c r="O127" s="129"/>
+      <c r="P127" s="129"/>
+      <c r="Q127" s="129"/>
+      <c r="R127" s="129"/>
       <c r="S127" s="83"/>
       <c r="T127" s="83"/>
       <c r="U127" s="83"/>
@@ -9078,7 +8895,7 @@
       <c r="Y127" s="83"/>
       <c r="Z127" s="83"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A128" s="74" t="s">
         <v>365</v>
       </c>
@@ -9168,7 +8985,7 @@
       </c>
       <c r="D129" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E129" s="78"/>
       <c r="F129" s="78"/>
@@ -9232,7 +9049,7 @@
       </c>
       <c r="D130" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E130" s="78"/>
       <c r="F130" s="78"/>
@@ -9354,7 +9171,7 @@
       <c r="I134" s="72"/>
       <c r="J134" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K134" s="73">
         <v>234</v>
@@ -9430,7 +9247,7 @@
       <c r="I138" s="72"/>
       <c r="J138" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K138" s="73">
         <v>234</v>
@@ -9440,76 +9257,76 @@
       </c>
     </row>
     <row r="140" spans="1:47" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="114" t="s">
+      <c r="A140" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="B140" s="115"/>
-      <c r="C140" s="115"/>
-      <c r="D140" s="115"/>
-      <c r="E140" s="115"/>
-      <c r="F140" s="115"/>
-      <c r="G140" s="115"/>
-      <c r="H140" s="115"/>
-      <c r="I140" s="115"/>
-      <c r="J140" s="115"/>
-      <c r="K140" s="115"/>
-      <c r="L140" s="115"/>
+      <c r="B140" s="105"/>
+      <c r="C140" s="105"/>
+      <c r="D140" s="105"/>
+      <c r="E140" s="105"/>
+      <c r="F140" s="105"/>
+      <c r="G140" s="105"/>
+      <c r="H140" s="105"/>
+      <c r="I140" s="105"/>
+      <c r="J140" s="105"/>
+      <c r="K140" s="105"/>
+      <c r="L140" s="105"/>
     </row>
     <row r="141" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A141" s="128" t="s">
+      <c r="A141" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="B141" s="128" t="s">
+      <c r="B141" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="C141" s="116" t="s">
+      <c r="C141" s="120" t="s">
         <v>344</v>
       </c>
-      <c r="D141" s="125" t="s">
+      <c r="D141" s="123" t="s">
         <v>345</v>
       </c>
-      <c r="E141" s="109" t="s">
+      <c r="E141" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="F141" s="109"/>
-      <c r="G141" s="109"/>
-      <c r="H141" s="109"/>
-      <c r="I141" s="122" t="s">
+      <c r="F141" s="126"/>
+      <c r="G141" s="126"/>
+      <c r="H141" s="126"/>
+      <c r="I141" s="127" t="s">
         <v>346</v>
       </c>
-      <c r="J141" s="122"/>
-      <c r="K141" s="122"/>
-      <c r="L141" s="122"/>
+      <c r="J141" s="127"/>
+      <c r="K141" s="127"/>
+      <c r="L141" s="127"/>
     </row>
     <row r="142" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A142" s="129"/>
-      <c r="B142" s="129"/>
-      <c r="C142" s="117"/>
-      <c r="D142" s="126"/>
-      <c r="E142" s="123" t="s">
+      <c r="A142" s="118"/>
+      <c r="B142" s="118"/>
+      <c r="C142" s="121"/>
+      <c r="D142" s="124"/>
+      <c r="E142" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="F142" s="124"/>
-      <c r="G142" s="120" t="s">
+      <c r="F142" s="111"/>
+      <c r="G142" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="H142" s="121"/>
-      <c r="I142" s="123" t="s">
+      <c r="H142" s="114"/>
+      <c r="I142" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="J142" s="124"/>
-      <c r="K142" s="120" t="s">
+      <c r="J142" s="111"/>
+      <c r="K142" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="L142" s="121"/>
+      <c r="L142" s="114"/>
     </row>
     <row r="143" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A143" s="130"/>
-      <c r="B143" s="130" t="s">
+      <c r="A143" s="119"/>
+      <c r="B143" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C143" s="118"/>
-      <c r="D143" s="127"/>
+      <c r="C143" s="122"/>
+      <c r="D143" s="125"/>
       <c r="E143" s="64" t="s">
         <v>348</v>
       </c>
@@ -9584,59 +9401,59 @@
       </c>
     </row>
     <row r="146" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A146" s="114"/>
-      <c r="B146" s="115"/>
-      <c r="C146" s="115"/>
-      <c r="D146" s="115"/>
-      <c r="E146" s="115"/>
-      <c r="F146" s="115"/>
-      <c r="G146" s="115"/>
-      <c r="H146" s="115"/>
-      <c r="I146" s="115"/>
-      <c r="J146" s="115"/>
+      <c r="A146" s="104"/>
+      <c r="B146" s="105"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="105"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+      <c r="J146" s="105"/>
     </row>
     <row r="147" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A147" s="84"/>
       <c r="B147" s="85"/>
-      <c r="C147" s="119" t="s">
+      <c r="C147" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="D147" s="119"/>
-      <c r="E147" s="119"/>
-      <c r="F147" s="119"/>
-      <c r="G147" s="119"/>
-      <c r="H147" s="119"/>
-      <c r="I147" s="119"/>
-      <c r="J147" s="119"/>
-      <c r="K147" s="119"/>
+      <c r="D147" s="106"/>
+      <c r="E147" s="106"/>
+      <c r="F147" s="106"/>
+      <c r="G147" s="106"/>
+      <c r="H147" s="106"/>
+      <c r="I147" s="106"/>
+      <c r="J147" s="106"/>
+      <c r="K147" s="106"/>
       <c r="Z147" s="69"/>
     </row>
     <row r="148" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A148" s="110" t="s">
+      <c r="A148" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="B148" s="110" t="s">
+      <c r="B148" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="C148" s="123" t="s">
+      <c r="C148" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="D148" s="131"/>
-      <c r="E148" s="131"/>
-      <c r="F148" s="124"/>
-      <c r="G148" s="120" t="s">
+      <c r="D148" s="110"/>
+      <c r="E148" s="110"/>
+      <c r="F148" s="111"/>
+      <c r="G148" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="H148" s="132"/>
-      <c r="I148" s="132"/>
-      <c r="J148" s="121"/>
-      <c r="K148" s="112" t="s">
+      <c r="H148" s="113"/>
+      <c r="I148" s="113"/>
+      <c r="J148" s="114"/>
+      <c r="K148" s="115" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A149" s="111"/>
-      <c r="B149" s="111"/>
+      <c r="A149" s="108"/>
+      <c r="B149" s="108"/>
       <c r="C149" s="64" t="s">
         <v>337</v>
       </c>
@@ -9661,7 +9478,7 @@
       <c r="J149" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="K149" s="113"/>
+      <c r="K149" s="116"/>
     </row>
     <row r="150" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A150" s="55" t="s">
@@ -9703,26 +9520,26 @@
       <c r="K150" s="30"/>
     </row>
     <row r="152" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A152" s="107" t="s">
+      <c r="A152" s="128" t="s">
         <v>419</v>
       </c>
-      <c r="B152" s="108"/>
-      <c r="C152" s="108"/>
-      <c r="D152" s="108"/>
-      <c r="E152" s="108"/>
-      <c r="F152" s="108"/>
-      <c r="G152" s="108"/>
-      <c r="H152" s="108"/>
-      <c r="I152" s="108"/>
-      <c r="J152" s="108"/>
-      <c r="K152" s="108"/>
-      <c r="L152" s="108"/>
-      <c r="M152" s="108"/>
-      <c r="N152" s="108"/>
-      <c r="O152" s="108"/>
-      <c r="P152" s="108"/>
-      <c r="Q152" s="108"/>
-      <c r="R152" s="108"/>
+      <c r="B152" s="129"/>
+      <c r="C152" s="129"/>
+      <c r="D152" s="129"/>
+      <c r="E152" s="129"/>
+      <c r="F152" s="129"/>
+      <c r="G152" s="129"/>
+      <c r="H152" s="129"/>
+      <c r="I152" s="129"/>
+      <c r="J152" s="129"/>
+      <c r="K152" s="129"/>
+      <c r="L152" s="129"/>
+      <c r="M152" s="129"/>
+      <c r="N152" s="129"/>
+      <c r="O152" s="129"/>
+      <c r="P152" s="129"/>
+      <c r="Q152" s="129"/>
+      <c r="R152" s="129"/>
       <c r="S152" s="87"/>
       <c r="T152" s="87"/>
       <c r="U152" s="87"/>
@@ -9936,11 +9753,11 @@
       </c>
       <c r="D157" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E157" s="78" t="str">
         <f ca="1">TEXT(TODAY()+29,"YYYY-MM-DD")</f>
-        <v>2023-03-02</v>
+        <v>2023-09-06</v>
       </c>
       <c r="F157" s="78"/>
       <c r="G157" s="78" t="s">
@@ -10041,24 +9858,24 @@
       </c>
     </row>
     <row r="159" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A159" s="107"/>
-      <c r="B159" s="108"/>
-      <c r="C159" s="108"/>
-      <c r="D159" s="108"/>
-      <c r="E159" s="108"/>
-      <c r="F159" s="108"/>
-      <c r="G159" s="108"/>
-      <c r="H159" s="108"/>
-      <c r="I159" s="108"/>
-      <c r="J159" s="108"/>
-      <c r="K159" s="108"/>
-      <c r="L159" s="108"/>
-      <c r="M159" s="108"/>
-      <c r="N159" s="108"/>
-      <c r="O159" s="108"/>
-      <c r="P159" s="108"/>
-      <c r="Q159" s="108"/>
-      <c r="R159" s="108"/>
+      <c r="A159" s="128"/>
+      <c r="B159" s="129"/>
+      <c r="C159" s="129"/>
+      <c r="D159" s="129"/>
+      <c r="E159" s="129"/>
+      <c r="F159" s="129"/>
+      <c r="G159" s="129"/>
+      <c r="H159" s="129"/>
+      <c r="I159" s="129"/>
+      <c r="J159" s="129"/>
+      <c r="K159" s="129"/>
+      <c r="L159" s="129"/>
+      <c r="M159" s="129"/>
+      <c r="N159" s="129"/>
+      <c r="O159" s="129"/>
+      <c r="P159" s="129"/>
+      <c r="Q159" s="129"/>
+      <c r="R159" s="129"/>
       <c r="S159" s="87"/>
       <c r="T159" s="87"/>
       <c r="U159" s="87"/>
@@ -10078,11 +9895,11 @@
       </c>
       <c r="D160" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E160" s="78" t="str">
         <f ca="1">TEXT(TODAY()+29,"YYYY-MM-DD")</f>
-        <v>2023-03-02</v>
+        <v>2023-09-06</v>
       </c>
       <c r="F160" s="78"/>
       <c r="G160" s="78" t="s">
@@ -10183,24 +10000,24 @@
       </c>
     </row>
     <row r="162" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A162" s="107"/>
-      <c r="B162" s="108"/>
-      <c r="C162" s="108"/>
-      <c r="D162" s="108"/>
-      <c r="E162" s="108"/>
-      <c r="F162" s="108"/>
-      <c r="G162" s="108"/>
-      <c r="H162" s="108"/>
-      <c r="I162" s="108"/>
-      <c r="J162" s="108"/>
-      <c r="K162" s="108"/>
-      <c r="L162" s="108"/>
-      <c r="M162" s="108"/>
-      <c r="N162" s="108"/>
-      <c r="O162" s="108"/>
-      <c r="P162" s="108"/>
-      <c r="Q162" s="108"/>
-      <c r="R162" s="108"/>
+      <c r="A162" s="128"/>
+      <c r="B162" s="129"/>
+      <c r="C162" s="129"/>
+      <c r="D162" s="129"/>
+      <c r="E162" s="129"/>
+      <c r="F162" s="129"/>
+      <c r="G162" s="129"/>
+      <c r="H162" s="129"/>
+      <c r="I162" s="129"/>
+      <c r="J162" s="129"/>
+      <c r="K162" s="129"/>
+      <c r="L162" s="129"/>
+      <c r="M162" s="129"/>
+      <c r="N162" s="129"/>
+      <c r="O162" s="129"/>
+      <c r="P162" s="129"/>
+      <c r="Q162" s="129"/>
+      <c r="R162" s="129"/>
       <c r="S162" s="87"/>
       <c r="T162" s="87"/>
       <c r="U162" s="87"/>
@@ -10478,7 +10295,7 @@
       <c r="I176" s="72"/>
       <c r="J176" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K176" s="73">
         <v>234</v>
@@ -10487,14 +10304,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A178" s="44" t="s">
         <v>355</v>
       </c>
       <c r="B178" s="45"/>
       <c r="C178" s="45"/>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A179" s="42" t="s">
         <v>355</v>
       </c>
@@ -10532,7 +10349,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="180" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:48" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="71" t="s">
         <v>436</v>
       </c>
@@ -10554,7 +10371,7 @@
       <c r="I180" s="72"/>
       <c r="J180" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K180" s="73">
         <v>234</v>
@@ -10563,27 +10380,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A182" s="107" t="s">
+    <row r="182" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A182" s="128" t="s">
         <v>442</v>
       </c>
-      <c r="B182" s="108"/>
-      <c r="C182" s="108"/>
-      <c r="D182" s="108"/>
-      <c r="E182" s="108"/>
-      <c r="F182" s="108"/>
-      <c r="G182" s="108"/>
-      <c r="H182" s="108"/>
-      <c r="I182" s="108"/>
-      <c r="J182" s="108"/>
-      <c r="K182" s="108"/>
-      <c r="L182" s="108"/>
-      <c r="M182" s="108"/>
-      <c r="N182" s="108"/>
-      <c r="O182" s="108"/>
-      <c r="P182" s="108"/>
-      <c r="Q182" s="108"/>
-      <c r="R182" s="108"/>
+      <c r="B182" s="129"/>
+      <c r="C182" s="129"/>
+      <c r="D182" s="129"/>
+      <c r="E182" s="129"/>
+      <c r="F182" s="129"/>
+      <c r="G182" s="129"/>
+      <c r="H182" s="129"/>
+      <c r="I182" s="129"/>
+      <c r="J182" s="129"/>
+      <c r="K182" s="129"/>
+      <c r="L182" s="129"/>
+      <c r="M182" s="129"/>
+      <c r="N182" s="129"/>
+      <c r="O182" s="129"/>
+      <c r="P182" s="129"/>
+      <c r="Q182" s="129"/>
+      <c r="R182" s="129"/>
       <c r="S182" s="92"/>
       <c r="T182" s="92"/>
       <c r="U182" s="92"/>
@@ -10593,7 +10410,7 @@
       <c r="Y182" s="92"/>
       <c r="Z182" s="92"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A183" s="74" t="s">
         <v>365</v>
       </c>
@@ -10673,7 +10490,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="184" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="75" t="s">
         <v>207</v>
       </c>
@@ -10683,11 +10500,11 @@
       </c>
       <c r="D184" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E184" s="77" t="str">
         <f ca="1">TEXT(TODAY()+29,"YYYY-MM-DD")</f>
-        <v>2023-03-02</v>
+        <v>2023-09-06</v>
       </c>
       <c r="F184" s="76" t="s">
         <v>443</v>
@@ -10746,13 +10563,13 @@
       </c>
       <c r="Z184" s="76"/>
       <c r="AU184" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="AV184" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="185" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="185" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="75" t="s">
         <v>207</v>
       </c>
@@ -10762,11 +10579,11 @@
       </c>
       <c r="D185" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E185" s="77" t="str">
         <f ca="1">TEXT(TODAY()+29,"YYYY-MM-DD")</f>
-        <v>2023-03-02</v>
+        <v>2023-09-06</v>
       </c>
       <c r="F185" s="76" t="s">
         <v>443</v>
@@ -10819,31 +10636,31 @@
       </c>
       <c r="Z185" s="76"/>
       <c r="AU185" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="AV185" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A186" s="107"/>
-      <c r="B186" s="108"/>
-      <c r="C186" s="108"/>
-      <c r="D186" s="108"/>
-      <c r="E186" s="108"/>
-      <c r="F186" s="108"/>
-      <c r="G186" s="108"/>
-      <c r="H186" s="108"/>
-      <c r="I186" s="108"/>
-      <c r="J186" s="108"/>
-      <c r="K186" s="108"/>
-      <c r="L186" s="108"/>
-      <c r="M186" s="108"/>
-      <c r="N186" s="108"/>
-      <c r="O186" s="108"/>
-      <c r="P186" s="108"/>
-      <c r="Q186" s="108"/>
-      <c r="R186" s="108"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="186" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A186" s="128"/>
+      <c r="B186" s="129"/>
+      <c r="C186" s="129"/>
+      <c r="D186" s="129"/>
+      <c r="E186" s="129"/>
+      <c r="F186" s="129"/>
+      <c r="G186" s="129"/>
+      <c r="H186" s="129"/>
+      <c r="I186" s="129"/>
+      <c r="J186" s="129"/>
+      <c r="K186" s="129"/>
+      <c r="L186" s="129"/>
+      <c r="M186" s="129"/>
+      <c r="N186" s="129"/>
+      <c r="O186" s="129"/>
+      <c r="P186" s="129"/>
+      <c r="Q186" s="129"/>
+      <c r="R186" s="129"/>
       <c r="S186" s="94"/>
       <c r="T186" s="94"/>
       <c r="U186" s="94"/>
@@ -10853,7 +10670,7 @@
       <c r="Y186" s="94"/>
       <c r="Z186" s="94"/>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A187" s="95" t="s">
         <v>194</v>
       </c>
@@ -10863,7 +10680,7 @@
       </c>
       <c r="D187" s="76" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E187" s="77"/>
       <c r="F187" s="77">
@@ -10907,31 +10724,31 @@
       </c>
       <c r="Z187" s="76"/>
       <c r="AU187" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="AV187" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A188" s="107"/>
-      <c r="B188" s="108"/>
-      <c r="C188" s="108"/>
-      <c r="D188" s="108"/>
-      <c r="E188" s="108"/>
-      <c r="F188" s="108"/>
-      <c r="G188" s="108"/>
-      <c r="H188" s="108"/>
-      <c r="I188" s="108"/>
-      <c r="J188" s="108"/>
-      <c r="K188" s="108"/>
-      <c r="L188" s="108"/>
-      <c r="M188" s="108"/>
-      <c r="N188" s="108"/>
-      <c r="O188" s="108"/>
-      <c r="P188" s="108"/>
-      <c r="Q188" s="108"/>
-      <c r="R188" s="108"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="188" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A188" s="128"/>
+      <c r="B188" s="129"/>
+      <c r="C188" s="129"/>
+      <c r="D188" s="129"/>
+      <c r="E188" s="129"/>
+      <c r="F188" s="129"/>
+      <c r="G188" s="129"/>
+      <c r="H188" s="129"/>
+      <c r="I188" s="129"/>
+      <c r="J188" s="129"/>
+      <c r="K188" s="129"/>
+      <c r="L188" s="129"/>
+      <c r="M188" s="129"/>
+      <c r="N188" s="129"/>
+      <c r="O188" s="129"/>
+      <c r="P188" s="129"/>
+      <c r="Q188" s="129"/>
+      <c r="R188" s="129"/>
       <c r="S188" s="94"/>
       <c r="T188" s="94"/>
       <c r="U188" s="94"/>
@@ -10941,7 +10758,7 @@
       <c r="Y188" s="94"/>
       <c r="Z188" s="94"/>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A189" s="95" t="s">
         <v>200</v>
       </c>
@@ -10951,7 +10768,7 @@
       </c>
       <c r="D189" s="76" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-02-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E189" s="77"/>
       <c r="F189" s="77">
@@ -10995,20 +10812,20 @@
       </c>
       <c r="Z189" s="76"/>
       <c r="AU189" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="AV189" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="191" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A191" s="44" t="s">
         <v>355</v>
       </c>
       <c r="B191" s="45"/>
       <c r="C191" s="45"/>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A192" s="42" t="s">
         <v>355</v>
       </c>
@@ -11068,7 +10885,7 @@
       <c r="I193" s="72"/>
       <c r="J193" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K193" s="73">
         <v>234</v>
@@ -11144,7 +10961,7 @@
       <c r="I197" s="72"/>
       <c r="J197" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K197" s="73">
         <v>234</v>
@@ -11154,76 +10971,76 @@
       </c>
     </row>
     <row r="199" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="114" t="s">
+      <c r="A199" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="B199" s="115"/>
-      <c r="C199" s="115"/>
-      <c r="D199" s="115"/>
-      <c r="E199" s="115"/>
-      <c r="F199" s="115"/>
-      <c r="G199" s="115"/>
-      <c r="H199" s="115"/>
-      <c r="I199" s="115"/>
-      <c r="J199" s="115"/>
-      <c r="K199" s="115"/>
-      <c r="L199" s="115"/>
+      <c r="B199" s="105"/>
+      <c r="C199" s="105"/>
+      <c r="D199" s="105"/>
+      <c r="E199" s="105"/>
+      <c r="F199" s="105"/>
+      <c r="G199" s="105"/>
+      <c r="H199" s="105"/>
+      <c r="I199" s="105"/>
+      <c r="J199" s="105"/>
+      <c r="K199" s="105"/>
+      <c r="L199" s="105"/>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A200" s="128" t="s">
+      <c r="A200" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="B200" s="128" t="s">
+      <c r="B200" s="117" t="s">
         <v>343</v>
       </c>
-      <c r="C200" s="116" t="s">
+      <c r="C200" s="120" t="s">
         <v>344</v>
       </c>
-      <c r="D200" s="125" t="s">
+      <c r="D200" s="123" t="s">
         <v>345</v>
       </c>
-      <c r="E200" s="109" t="s">
+      <c r="E200" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="F200" s="109"/>
-      <c r="G200" s="109"/>
-      <c r="H200" s="109"/>
-      <c r="I200" s="122" t="s">
+      <c r="F200" s="126"/>
+      <c r="G200" s="126"/>
+      <c r="H200" s="126"/>
+      <c r="I200" s="127" t="s">
         <v>346</v>
       </c>
-      <c r="J200" s="122"/>
-      <c r="K200" s="122"/>
-      <c r="L200" s="122"/>
+      <c r="J200" s="127"/>
+      <c r="K200" s="127"/>
+      <c r="L200" s="127"/>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A201" s="129"/>
-      <c r="B201" s="129"/>
-      <c r="C201" s="117"/>
-      <c r="D201" s="126"/>
-      <c r="E201" s="123" t="s">
+      <c r="A201" s="118"/>
+      <c r="B201" s="118"/>
+      <c r="C201" s="121"/>
+      <c r="D201" s="124"/>
+      <c r="E201" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="F201" s="124"/>
-      <c r="G201" s="120" t="s">
+      <c r="F201" s="111"/>
+      <c r="G201" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="H201" s="121"/>
-      <c r="I201" s="123" t="s">
+      <c r="H201" s="114"/>
+      <c r="I201" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="J201" s="124"/>
-      <c r="K201" s="120" t="s">
+      <c r="J201" s="111"/>
+      <c r="K201" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="L201" s="121"/>
+      <c r="L201" s="114"/>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A202" s="130"/>
-      <c r="B202" s="130" t="s">
+      <c r="A202" s="119"/>
+      <c r="B202" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C202" s="118"/>
-      <c r="D202" s="127"/>
+      <c r="C202" s="122"/>
+      <c r="D202" s="125"/>
       <c r="E202" s="64" t="s">
         <v>348</v>
       </c>
@@ -11298,71 +11115,71 @@
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A205" s="114" t="s">
+      <c r="A205" s="104" t="s">
         <v>353</v>
       </c>
-      <c r="B205" s="115"/>
-      <c r="C205" s="115"/>
-      <c r="D205" s="115"/>
-      <c r="E205" s="115"/>
-      <c r="F205" s="115"/>
-      <c r="G205" s="115"/>
-      <c r="H205" s="115"/>
-      <c r="I205" s="115"/>
-      <c r="J205" s="115"/>
+      <c r="B205" s="105"/>
+      <c r="C205" s="105"/>
+      <c r="D205" s="105"/>
+      <c r="E205" s="105"/>
+      <c r="F205" s="105"/>
+      <c r="G205" s="105"/>
+      <c r="H205" s="105"/>
+      <c r="I205" s="105"/>
+      <c r="J205" s="105"/>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A206" s="96"/>
       <c r="B206" s="97"/>
-      <c r="C206" s="119" t="s">
+      <c r="C206" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="D206" s="119"/>
-      <c r="E206" s="119"/>
-      <c r="F206" s="119"/>
-      <c r="G206" s="119"/>
-      <c r="H206" s="119"/>
-      <c r="I206" s="119"/>
-      <c r="J206" s="119"/>
-      <c r="K206" s="119"/>
-      <c r="L206" s="141" t="s">
+      <c r="D206" s="106"/>
+      <c r="E206" s="106"/>
+      <c r="F206" s="106"/>
+      <c r="G206" s="106"/>
+      <c r="H206" s="106"/>
+      <c r="I206" s="106"/>
+      <c r="J206" s="106"/>
+      <c r="K206" s="106"/>
+      <c r="L206" s="101" t="s">
         <v>448</v>
       </c>
-      <c r="M206" s="142"/>
-      <c r="N206" s="142"/>
+      <c r="M206" s="102"/>
+      <c r="N206" s="102"/>
       <c r="Z206" s="69"/>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A207" s="110" t="s">
+      <c r="A207" s="107" t="s">
         <v>333</v>
       </c>
-      <c r="B207" s="110" t="s">
+      <c r="B207" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="C207" s="123" t="s">
+      <c r="C207" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="D207" s="131"/>
-      <c r="E207" s="131"/>
-      <c r="F207" s="124"/>
-      <c r="G207" s="120" t="s">
+      <c r="D207" s="110"/>
+      <c r="E207" s="110"/>
+      <c r="F207" s="111"/>
+      <c r="G207" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="H207" s="132"/>
-      <c r="I207" s="132"/>
-      <c r="J207" s="121"/>
-      <c r="K207" s="112" t="s">
+      <c r="H207" s="113"/>
+      <c r="I207" s="113"/>
+      <c r="J207" s="114"/>
+      <c r="K207" s="115" t="s">
         <v>354</v>
       </c>
-      <c r="L207" s="141" t="s">
+      <c r="L207" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="M207" s="142"/>
-      <c r="N207" s="143"/>
+      <c r="M207" s="102"/>
+      <c r="N207" s="103"/>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A208" s="111"/>
-      <c r="B208" s="111"/>
+      <c r="A208" s="108"/>
+      <c r="B208" s="108"/>
       <c r="C208" s="64" t="s">
         <v>337</v>
       </c>
@@ -11387,7 +11204,7 @@
       <c r="J208" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="K208" s="113"/>
+      <c r="K208" s="116"/>
       <c r="L208" s="98" t="s">
         <v>337</v>
       </c>
@@ -11522,7 +11339,7 @@
       <c r="I213" s="72"/>
       <c r="J213" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K213" s="73">
         <v>234</v>
@@ -11598,7 +11415,7 @@
       <c r="I217" s="72"/>
       <c r="J217" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K217" s="73">
         <v>234</v>
@@ -11674,7 +11491,7 @@
       <c r="I221" s="72"/>
       <c r="J221" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K221" s="73">
         <v>234</v>
@@ -11704,11 +11521,11 @@
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="73" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-03-18</v>
+        <v>2023-09-22</v>
       </c>
       <c r="B225" s="100" t="str">
         <f ca="1">TEXT(TODAY()+75,"YYYY-MM-DD")</f>
-        <v>2023-04-17</v>
+        <v>2023-10-22</v>
       </c>
       <c r="C225" s="72" t="s">
         <v>453</v>
@@ -11781,7 +11598,7 @@
       <c r="I229" s="72"/>
       <c r="J229" s="73">
         <f ca="1">TODAY()</f>
-        <v>44958</v>
+        <v>45146</v>
       </c>
       <c r="K229" s="73">
         <v>234</v>
@@ -11792,94 +11609,46 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="44" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B231" s="45"/>
       <c r="C231" s="45"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="42" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B232" s="42" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="73" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B233" s="55" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C233" s="72" t="s">
         <v>315</v>
       </c>
     </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A234" s="73" t="s">
+        <v>479</v>
+      </c>
+      <c r="B234" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="C234" s="72" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="L206:N206"/>
-    <mergeCell ref="L207:N207"/>
-    <mergeCell ref="A205:J205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:F207"/>
-    <mergeCell ref="G207:J207"/>
-    <mergeCell ref="K207:K208"/>
-    <mergeCell ref="A199:L199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="E200:H200"/>
-    <mergeCell ref="I200:L200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="A186:R186"/>
-    <mergeCell ref="A188:R188"/>
-    <mergeCell ref="A182:R182"/>
-    <mergeCell ref="A152:R152"/>
-    <mergeCell ref="A159:R159"/>
-    <mergeCell ref="A162:R162"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="G105:J105"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="A103:J103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="C147:K147"/>
-    <mergeCell ref="A146:J146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="G148:J148"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="A127:R127"/>
-    <mergeCell ref="A140:L140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="I142:J142"/>
-    <mergeCell ref="K142:L142"/>
     <mergeCell ref="AG88:AL88"/>
     <mergeCell ref="T88:V88"/>
     <mergeCell ref="W88:X88"/>
@@ -11896,6 +11665,65 @@
     <mergeCell ref="K99:L99"/>
     <mergeCell ref="I98:L98"/>
     <mergeCell ref="E99:F99"/>
+    <mergeCell ref="A127:R127"/>
+    <mergeCell ref="A140:L140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="C147:K147"/>
+    <mergeCell ref="A146:J146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="G148:J148"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="A103:J103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="A186:R186"/>
+    <mergeCell ref="A188:R188"/>
+    <mergeCell ref="A182:R182"/>
+    <mergeCell ref="A152:R152"/>
+    <mergeCell ref="A159:R159"/>
+    <mergeCell ref="A162:R162"/>
+    <mergeCell ref="A199:L199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="D200:D202"/>
+    <mergeCell ref="E200:H200"/>
+    <mergeCell ref="I200:L200"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="L206:N206"/>
+    <mergeCell ref="L207:N207"/>
+    <mergeCell ref="A205:J205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:F207"/>
+    <mergeCell ref="G207:J207"/>
+    <mergeCell ref="K207:K208"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C62 OCX129:OCX130 NTB129:NTB130 NJF129:NJF130 MZJ129:MZJ130 MPN129:MPN130 MFR129:MFR130 LVV129:LVV130 LLZ129:LLZ130 KSH129:KSH130 KIL129:KIL130 JYP129:JYP130 JOT129:JOT130 JEX129:JEX130 IVB129:IVB130 ILF129:ILF130 IBJ129:IBJ130 HRN129:HRN130 HHR129:HHR130 GXV129:GXV130 GNZ129:GNZ130 GED129:GED130 FUH129:FUH130 FKL129:FKL130 LCD129:LCD130 FAP129:FAP130 EQT129:EQT130 EGX129:EGX130 DXB129:DXB130 DNF129:DNF130 DDJ129:DDJ130 CTN129:CTN130 CJR129:CJR130 BZV129:BZV130 BPZ129:BPZ130 BGD129:BGD130 AWH129:AWH130 AML129:AML130 ACP129:ACP130 ST129:ST130 IX129:IX130 WVJ129:WVJ130 WLN129:WLN130 WBR129:WBR130 VRV129:VRV130 VHZ129:VHZ130 UYD129:UYD130 UOH129:UOH130 UEL129:UEL130 TUP129:TUP130 TKT129:TKT130 TAX129:TAX130 SRB129:SRB130 SHF129:SHF130 RXJ129:RXJ130 RNN129:RNN130 RDR129:RDR130 QTV129:QTV130 QJZ129:QJZ130 QAD129:QAD130 PQH129:PQH130 PGL129:PGL130 OWP129:OWP130 OMT129:OMT130 MPN115:MPN118 MZJ115:MZJ118 NJF115:NJF118 NTB115:NTB118 OCX115:OCX118 OMT115:OMT118 OWP115:OWP118 PGL115:PGL118 PQH115:PQH118 QAD115:QAD118 QJZ115:QJZ118 QTV115:QTV118 RDR115:RDR118 RNN115:RNN118 RXJ115:RXJ118 SHF115:SHF118 SRB115:SRB118 TAX115:TAX118 TKT115:TKT118 TUP115:TUP118 UEL115:UEL118 UOH115:UOH118 UYD115:UYD118 VHZ115:VHZ118 VRV115:VRV118 WBR115:WBR118 WLN115:WLN118 WVJ115:WVJ118 IX115:IX118 ST115:ST118 ACP115:ACP118 AML115:AML118 AWH115:AWH118 BGD115:BGD118 BPZ115:BPZ118 BZV115:BZV118 CJR115:CJR118 CTN115:CTN118 DDJ115:DDJ118 DNF115:DNF118 DXB115:DXB118 EGX115:EGX118 EQT115:EQT118 FAP115:FAP118 LCD115:LCD118 FKL115:FKL118 FUH115:FUH118 GED115:GED118 GNZ115:GNZ118 GXV115:GXV118 HHR115:HHR118 HRN115:HRN118 IBJ115:IBJ118 ILF115:ILF118 IVB115:IVB118 JEX115:JEX118 JOT115:JOT118 JYP115:JYP118 KIL115:KIL118 KSH115:KSH118 LLZ115:LLZ118 LVV115:LVV118 MFR115:MFR118 MZJ122:MZJ125 NJF122:NJF125 NTB122:NTB125 OCX122:OCX125 OMT122:OMT125 OWP122:OWP125 PGL122:PGL125 PQH122:PQH125 QAD122:QAD125 QJZ122:QJZ125 QTV122:QTV125 RDR122:RDR125 RNN122:RNN125 RXJ122:RXJ125 SHF122:SHF125 SRB122:SRB125 TAX122:TAX125 TKT122:TKT125 TUP122:TUP125 UEL122:UEL125 UOH122:UOH125 UYD122:UYD125 VHZ122:VHZ125 VRV122:VRV125 WBR122:WBR125 WLN122:WLN125 WVJ122:WVJ125 IX122:IX125 ST122:ST125 ACP122:ACP125 AML122:AML125 AWH122:AWH125 BGD122:BGD125 BPZ122:BPZ125 BZV122:BZV125 CJR122:CJR125 CTN122:CTN125 DDJ122:DDJ125 DNF122:DNF125 DXB122:DXB125 EGX122:EGX125 EQT122:EQT125 FAP122:FAP125 LCD122:LCD125 FKL122:FKL125 FUH122:FUH125 GED122:GED125 GNZ122:GNZ125 GXV122:GXV125 HHR122:HHR125 HRN122:HRN125 IBJ122:IBJ125 ILF122:ILF125 IVB122:IVB125 JEX122:JEX125 JOT122:JOT125 JYP122:JYP125 KIL122:KIL125 KSH122:KSH125 LLZ122:LLZ125 LVV122:LVV125 MFR122:MFR125 MPN122:MPN125 OCX163:OCX164 NTB163:NTB164 NJF163:NJF164 MZJ163:MZJ164 MPN163:MPN164 MFR163:MFR164 LVV163:LVV164 LLZ163:LLZ164 KSH163:KSH164 KIL163:KIL164 JYP163:JYP164 JOT163:JOT164 JEX163:JEX164 IVB163:IVB164 ILF163:ILF164 IBJ163:IBJ164 HRN163:HRN164 HHR163:HHR164 GXV163:GXV164 GNZ163:GNZ164 GED163:GED164 FUH163:FUH164 FKL163:FKL164 LCD163:LCD164 FAP163:FAP164 EQT163:EQT164 EGX163:EGX164 DXB163:DXB164 DNF163:DNF164 DDJ163:DDJ164 CTN163:CTN164 CJR163:CJR164 BZV163:BZV164 BPZ163:BPZ164 BGD163:BGD164 AWH163:AWH164 AML163:AML164 ACP163:ACP164 ST163:ST164 IX163:IX164 WVJ163:WVJ164 WLN163:WLN164 WBR163:WBR164 VRV163:VRV164 VHZ163:VHZ164 UYD163:UYD164 UOH163:UOH164 UEL163:UEL164 TUP163:TUP164 TKT163:TKT164 TAX163:TAX164 SRB163:SRB164 SHF163:SHF164 RXJ163:RXJ164 RNN163:RNN164 RDR163:RDR164 QTV163:QTV164 QJZ163:QJZ164 QAD163:QAD164 PQH163:PQH164 PGL163:PGL164 OWP163:OWP164 OMT163:OMT164 MPN157:MPN158 MZJ157:MZJ158 NJF157:NJF158 NTB157:NTB158 OCX157:OCX158 OMT157:OMT158 OWP157:OWP158 PGL157:PGL158 PQH157:PQH158 QAD157:QAD158 QJZ157:QJZ158 QTV157:QTV158 RDR157:RDR158 RNN157:RNN158 RXJ157:RXJ158 SHF157:SHF158 SRB157:SRB158 TAX157:TAX158 TKT157:TKT158 TUP157:TUP158 UEL157:UEL158 UOH157:UOH158 UYD157:UYD158 VHZ157:VHZ158 VRV157:VRV158 WBR157:WBR158 WLN157:WLN158 WVJ157:WVJ158 IX157:IX158 ST157:ST158 ACP157:ACP158 AML157:AML158 AWH157:AWH158 BGD157:BGD158 BPZ157:BPZ158 BZV157:BZV158 CJR157:CJR158 CTN157:CTN158 DDJ157:DDJ158 DNF157:DNF158 DXB157:DXB158 EGX157:EGX158 EQT157:EQT158 FAP157:FAP158 LCD157:LCD158 FKL157:FKL158 FUH157:FUH158 GED157:GED158 GNZ157:GNZ158 GXV157:GXV158 HHR157:HHR158 HRN157:HRN158 IBJ157:IBJ158 ILF157:ILF158 IVB157:IVB158 JEX157:JEX158 JOT157:JOT158 JYP157:JYP158 KIL157:KIL158 KSH157:KSH158 LLZ157:LLZ158 LVV157:LVV158 MFR157:MFR158 MZJ160:MZJ161 NJF160:NJF161 NTB160:NTB161 OCX160:OCX161 OMT160:OMT161 OWP160:OWP161 PGL160:PGL161 PQH160:PQH161 QAD160:QAD161 QJZ160:QJZ161 QTV160:QTV161 RDR160:RDR161 RNN160:RNN161 RXJ160:RXJ161 SHF160:SHF161 SRB160:SRB161 TAX160:TAX161 TKT160:TKT161 TUP160:TUP161 UEL160:UEL161 UOH160:UOH161 UYD160:UYD161 VHZ160:VHZ161 VRV160:VRV161 WBR160:WBR161 WLN160:WLN161 WVJ160:WVJ161 IX160:IX161 ST160:ST161 ACP160:ACP161 AML160:AML161 AWH160:AWH161 BGD160:BGD161 BPZ160:BPZ161 BZV160:BZV161 CJR160:CJR161 CTN160:CTN161 DDJ160:DDJ161 DNF160:DNF161 DXB160:DXB161 EGX160:EGX161 EQT160:EQT161 FAP160:FAP161 LCD160:LCD161 FKL160:FKL161 FUH160:FUH161 GED160:GED161 GNZ160:GNZ161 GXV160:GXV161 HHR160:HHR161 HRN160:HRN161 IBJ160:IBJ161 ILF160:ILF161 IVB160:IVB161 JEX160:JEX161 JOT160:JOT161 JYP160:JYP161 KIL160:KIL161 KSH160:KSH161 LLZ160:LLZ161 LVV160:LVV161 MFR160:MFR161 MPN160:MPN161 MFR184:MFR185 LVV184:LVV185 LLZ184:LLZ185 KSH184:KSH185 KIL184:KIL185 JYP184:JYP185 JOT184:JOT185 JEX184:JEX185 IVB184:IVB185 ILF184:ILF185 IBJ184:IBJ185 HRN184:HRN185 HHR184:HHR185 GXV184:GXV185 GNZ184:GNZ185 GED184:GED185 FUH184:FUH185 FKL184:FKL185 LCD184:LCD185 FAP184:FAP185 EQT184:EQT185 EGX184:EGX185 DXB184:DXB185 DNF184:DNF185 DDJ184:DDJ185 CTN184:CTN185 CJR184:CJR185 BZV184:BZV185 BPZ184:BPZ185 BGD184:BGD185 AWH184:AWH185 AML184:AML185 ACP184:ACP185 ST184:ST185 IX184:IX185 WVJ184:WVJ185 WLN184:WLN185 WBR184:WBR185 VRV184:VRV185 VHZ184:VHZ185 UYD184:UYD185 UOH184:UOH185 UEL184:UEL185 TUP184:TUP185 TKT184:TKT185 TAX184:TAX185 SRB184:SRB185 SHF184:SHF185 RXJ184:RXJ185 RNN184:RNN185 RDR184:RDR185 QTV184:QTV185 QJZ184:QJZ185 QAD184:QAD185 PQH184:PQH185 PGL184:PGL185 OWP184:OWP185 OMT184:OMT185 OCX184:OCX185 NTB184:NTB185 NJF184:NJF185 MZJ184:MZJ185 MPN184:MPN185 NJF187 NTB187 OCX187 OMT187 OWP187 PGL187 PQH187 QAD187 QJZ187 QTV187 RDR187 RNN187 RXJ187 SHF187 SRB187 TAX187 TKT187 TUP187 UEL187 UOH187 UYD187 VHZ187 VRV187 WBR187 WLN187 WVJ187 IX187 ST187 ACP187 AML187 AWH187 BGD187 BPZ187 BZV187 CJR187 CTN187 DDJ187 DNF187 DXB187 EGX187 EQT187 FAP187 LCD187 FKL187 FUH187 GED187 GNZ187 GXV187 HHR187 HRN187 IBJ187 ILF187 IVB187 JEX187 JOT187 JYP187 KIL187 KSH187 LLZ187 LVV187 MFR187 MPN187 MZJ187 NJF189 NTB189 OCX189 OMT189 OWP189 PGL189 PQH189 QAD189 QJZ189 QTV189 RDR189 RNN189 RXJ189 SHF189 SRB189 TAX189 TKT189 TUP189 UEL189 UOH189 UYD189 VHZ189 VRV189 WBR189 WLN189 WVJ189 IX189 ST189 ACP189 AML189 AWH189 BGD189 BPZ189 BZV189 CJR189 CTN189 DDJ189 DNF189 DXB189 EGX189 EQT189 FAP189 LCD189 FKL189 FUH189 GED189 GNZ189 GXV189 HHR189 HRN189 IBJ189 ILF189 IVB189 JEX189 JOT189 JYP189 KIL189 KSH189 LLZ189 LVV189 MFR189 MPN189 MZJ189">
@@ -11927,13 +11755,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_Stacking_39768.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_Stacking_39768.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="521">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1481,30 +1481,6 @@
 </t>
   </si>
   <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7449211051","dealId":"2139564813","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2139564813","modelId":"7449211051","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6160014314","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-02","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7449211051","dealId":"2139564813","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6168600492","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6168600493","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6168600494","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"6160014314","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2139564813","modelId":"7449211051","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6160014315","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6168600492","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6168600493","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6168600494","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7449211051","dealId":"2139564813","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-02","assignmentLevel":"Parent Customer Price List"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2139564813","modelId":"7449211051","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6160014316","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-02","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7449211051","dealId":"2139564813","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6168600498","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6168600499","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6168600500","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"6160014316","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2139564813","modelId":"7449211051","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6160014317","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6168600498","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6168600499","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6168600500","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6413032125","dealId":"2139564813","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7498600504","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7498600505","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7498600506","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-08-31","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7490014318","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-02","assignmentLevel":"Customer Agreed"}]}}}</t>
   </si>
   <si>
@@ -1530,6 +1506,154 @@
   </si>
   <si>
     <t>DM_RATEVALUE</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8620933549","dealId":"7084300187","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7084300187","modelId":"8620933549","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9080014462","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8620933549","dealId":"7084300187","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9088600810","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9088600811","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9088600812","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"9080014462","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7084300187","modelId":"8620933549","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9080014463","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9088600810","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9088600811","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9088600812","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8620933549","dealId":"7084300187","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7084300187","modelId":"8620933549","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9080014464","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8620933549","dealId":"7084300187","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9088600816","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9088600817","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9088600818","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"9080014464","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7084300187","modelId":"8620933549","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9080014465","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9088600816","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9088600817","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9088600818","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacking Required (Y/N)
+</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7180339789","dealId":"3245486534","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3245486534","modelId":"7180339789","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7350014717","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7180339789","dealId":"3245486534","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7358601297","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7358601298","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7358601299","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7350014717","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3245486534","modelId":"7180339789","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7350014718","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7358601297","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7358601298","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7358601299","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7180339789","dealId":"3245486534","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3245486534","modelId":"7180339789","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7350014719","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7180339789","dealId":"3245486534","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7358601303","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7358601304","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7358601305","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7350014719","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3245486534","modelId":"7180339789","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7350014720","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7358601303","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7358601304","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7358601305","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0869266178","dealId":"1398966178","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-09","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1398966178","modelId":"0869266178","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9920014742","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0869266178","dealId":"1398966178","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9928601368","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9928601369","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9928601370","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"9920014742","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1398966178","modelId":"0869266178","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9920014743","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9928601368","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9928601369","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9928601370","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0869266178","dealId":"1398966178","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-09","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1398966178","modelId":"0869266178","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9920014744","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"0869266178","dealId":"1398966178","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9928601374","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9928601375","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9928601376","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"9920014744","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1398966178","modelId":"0869266178","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9920014745","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9928601374","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9928601375","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9928601376","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9516490642","dealId":"1398966178","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6938601380","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6938601381","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6938601382","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-07","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"6930014746","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1398966178","modelId":"9516490642","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6930014750","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-09","endDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6938601380","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6938601381","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6938601382","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9516490642","dealId":"1398966178","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"6938601380","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"6938601381","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"6938601382","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-07","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"6930014746","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1398966178","modelId":"9516490642","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6930014746","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-09","endDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6938601380","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6938601381","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"6938601382","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9516490642","dealId":"1398966178","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-09","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1398966178","modelId":"9516490642","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6930014751","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9516490642","dealId":"1398966178","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-09","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"1398966178","modelId":"9516490642","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"6930014752","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-09","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5471120428","dealId":"9717923959","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"5471120428","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3230014230","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5471120428","dealId":"9717923959","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3238600386","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3238600387","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3238600388","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3230014230","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"5471120428","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3230014231","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3238600386","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3238600387","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3238600388","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5471120428","dealId":"9717923959","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"5471120428","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3230014232","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5471120428","dealId":"9717923959","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3238600392","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3238600393","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3238600394","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"3230014232","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"5471120428","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3230014233","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3238600392","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3238600393","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3238600394","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7886427866","dealId":"9717923959","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8918600398","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8918600399","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8918600400","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"8910014234","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"7886427866","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8910014238","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","endDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8918600398","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8918600399","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8918600400","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7886427866","dealId":"9717923959","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8918600398","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8918600399","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8918600400","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"8910014234","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"7886427866","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8910014234","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","endDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8918600398","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8918600399","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8918600400","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7886427866","dealId":"9717923959","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"7886427866","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8910014239","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7886427866","dealId":"9717923959","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"7886427866","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8910014240","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -2207,6 +2331,126 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2214,126 +2458,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2629,18 +2753,18 @@
   <dimension ref="A1:DN234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238"/>
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.26953125" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="57.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
+    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -3499,11 +3623,11 @@
       <c r="I20" s="14"/>
     </row>
     <row r="22" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
     </row>
     <row r="23" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
@@ -3557,24 +3681,24 @@
       </c>
     </row>
     <row r="27" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
       <c r="BM27" s="16"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="16"/>
@@ -6451,12 +6575,12 @@
       <c r="DM60" s="16"/>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="B62" s="134"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="135"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="138"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6494,17 +6618,17 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="133" t="s">
+      <c r="A66" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="134"/>
-      <c r="C66" s="134"/>
-      <c r="D66" s="134"/>
-      <c r="E66" s="134"/>
-      <c r="F66" s="134"/>
-      <c r="G66" s="134"/>
-      <c r="H66" s="134"/>
-      <c r="I66" s="135"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
@@ -7082,27 +7206,27 @@
       </c>
     </row>
     <row r="81" spans="1:78" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="139" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="136"/>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136"/>
-      <c r="G81" s="136"/>
-      <c r="H81" s="136"/>
-      <c r="I81" s="136"/>
-      <c r="J81" s="136"/>
-      <c r="K81" s="136"/>
+      <c r="B81" s="139"/>
+      <c r="C81" s="139"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="139"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="139"/>
+      <c r="H81" s="139"/>
+      <c r="I81" s="139"/>
+      <c r="J81" s="139"/>
+      <c r="K81" s="139"/>
     </row>
     <row r="83" spans="1:78" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="137" t="s">
+      <c r="A83" s="140" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="137"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
@@ -7231,33 +7355,33 @@
       <c r="S88" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="T88" s="141" t="s">
+      <c r="T88" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="U88" s="142"/>
-      <c r="V88" s="143"/>
-      <c r="W88" s="141" t="s">
+      <c r="U88" s="105"/>
+      <c r="V88" s="106"/>
+      <c r="W88" s="104" t="s">
         <v>287</v>
       </c>
-      <c r="X88" s="143"/>
+      <c r="X88" s="106"/>
       <c r="Y88" s="48"/>
-      <c r="Z88" s="138" t="s">
+      <c r="Z88" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="AA88" s="139"/>
-      <c r="AB88" s="139"/>
-      <c r="AC88" s="139"/>
-      <c r="AD88" s="139"/>
-      <c r="AE88" s="139"/>
-      <c r="AF88" s="140"/>
-      <c r="AG88" s="138" t="s">
+      <c r="AA88" s="102"/>
+      <c r="AB88" s="102"/>
+      <c r="AC88" s="102"/>
+      <c r="AD88" s="102"/>
+      <c r="AE88" s="102"/>
+      <c r="AF88" s="103"/>
+      <c r="AG88" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="AH88" s="139"/>
-      <c r="AI88" s="139"/>
-      <c r="AJ88" s="139"/>
-      <c r="AK88" s="139"/>
-      <c r="AL88" s="140"/>
+      <c r="AH88" s="102"/>
+      <c r="AI88" s="102"/>
+      <c r="AJ88" s="102"/>
+      <c r="AK88" s="102"/>
+      <c r="AL88" s="103"/>
       <c r="AM88" s="49"/>
       <c r="AN88" s="50"/>
       <c r="AO88" s="50"/>
@@ -7800,76 +7924,76 @@
       <c r="BZ95" s="51"/>
     </row>
     <row r="97" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="104" t="s">
+      <c r="A97" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="B97" s="105"/>
-      <c r="C97" s="105"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="105"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="105"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="115"/>
+      <c r="D97" s="115"/>
+      <c r="E97" s="115"/>
+      <c r="F97" s="115"/>
+      <c r="G97" s="115"/>
+      <c r="H97" s="115"/>
+      <c r="I97" s="115"/>
+      <c r="J97" s="115"/>
+      <c r="K97" s="115"/>
+      <c r="L97" s="115"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="B98" s="117" t="s">
+      <c r="B98" s="128" t="s">
         <v>343</v>
       </c>
-      <c r="C98" s="120" t="s">
+      <c r="C98" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D98" s="123" t="s">
+      <c r="D98" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="E98" s="126" t="s">
+      <c r="E98" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="F98" s="126"/>
-      <c r="G98" s="126"/>
-      <c r="H98" s="126"/>
-      <c r="I98" s="127" t="s">
+      <c r="F98" s="109"/>
+      <c r="G98" s="109"/>
+      <c r="H98" s="109"/>
+      <c r="I98" s="122" t="s">
         <v>346</v>
       </c>
-      <c r="J98" s="127"/>
-      <c r="K98" s="127"/>
-      <c r="L98" s="127"/>
+      <c r="J98" s="122"/>
+      <c r="K98" s="122"/>
+      <c r="L98" s="122"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="118"/>
-      <c r="B99" s="118"/>
-      <c r="C99" s="121"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="109" t="s">
+      <c r="A99" s="129"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="126"/>
+      <c r="E99" s="123" t="s">
         <v>347</v>
       </c>
-      <c r="F99" s="111"/>
-      <c r="G99" s="112" t="s">
+      <c r="F99" s="124"/>
+      <c r="G99" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="H99" s="114"/>
-      <c r="I99" s="109" t="s">
+      <c r="H99" s="121"/>
+      <c r="I99" s="123" t="s">
         <v>347</v>
       </c>
-      <c r="J99" s="111"/>
-      <c r="K99" s="112" t="s">
+      <c r="J99" s="124"/>
+      <c r="K99" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="L99" s="114"/>
+      <c r="L99" s="121"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="119"/>
-      <c r="B100" s="119" t="s">
+      <c r="A100" s="130"/>
+      <c r="B100" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="122"/>
-      <c r="D100" s="125"/>
+      <c r="C100" s="118"/>
+      <c r="D100" s="127"/>
       <c r="E100" s="64" t="s">
         <v>348</v>
       </c>
@@ -7944,61 +8068,61 @@
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A103" s="104" t="s">
+      <c r="A103" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="B103" s="105"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="105"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="105"/>
+      <c r="B103" s="115"/>
+      <c r="C103" s="115"/>
+      <c r="D103" s="115"/>
+      <c r="E103" s="115"/>
+      <c r="F103" s="115"/>
+      <c r="G103" s="115"/>
+      <c r="H103" s="115"/>
+      <c r="I103" s="115"/>
+      <c r="J103" s="115"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="62"/>
       <c r="B104" s="63"/>
-      <c r="C104" s="106" t="s">
+      <c r="C104" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="106"/>
-      <c r="G104" s="106"/>
-      <c r="H104" s="106"/>
-      <c r="I104" s="106"/>
-      <c r="J104" s="106"/>
-      <c r="K104" s="106"/>
+      <c r="D104" s="119"/>
+      <c r="E104" s="119"/>
+      <c r="F104" s="119"/>
+      <c r="G104" s="119"/>
+      <c r="H104" s="119"/>
+      <c r="I104" s="119"/>
+      <c r="J104" s="119"/>
+      <c r="K104" s="119"/>
       <c r="Z104" s="69"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="107" t="s">
+      <c r="A105" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="B105" s="107" t="s">
+      <c r="B105" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="C105" s="109" t="s">
+      <c r="C105" s="123" t="s">
         <v>335</v>
       </c>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
-      <c r="F105" s="111"/>
-      <c r="G105" s="112" t="s">
+      <c r="D105" s="131"/>
+      <c r="E105" s="131"/>
+      <c r="F105" s="124"/>
+      <c r="G105" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="H105" s="113"/>
-      <c r="I105" s="113"/>
-      <c r="J105" s="114"/>
-      <c r="K105" s="115" t="s">
+      <c r="H105" s="132"/>
+      <c r="I105" s="132"/>
+      <c r="J105" s="121"/>
+      <c r="K105" s="112" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="108"/>
-      <c r="B106" s="108"/>
+      <c r="A106" s="111"/>
+      <c r="B106" s="111"/>
       <c r="C106" s="64" t="s">
         <v>337</v>
       </c>
@@ -8023,7 +8147,7 @@
       <c r="J106" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="K106" s="116"/>
+      <c r="K106" s="113"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="55" t="s">
@@ -8144,26 +8268,26 @@
       </c>
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A113" s="128" t="s">
+      <c r="A113" s="107" t="s">
         <v>398</v>
       </c>
-      <c r="B113" s="129"/>
-      <c r="C113" s="129"/>
-      <c r="D113" s="129"/>
-      <c r="E113" s="129"/>
-      <c r="F113" s="129"/>
-      <c r="G113" s="129"/>
-      <c r="H113" s="129"/>
-      <c r="I113" s="129"/>
-      <c r="J113" s="129"/>
-      <c r="K113" s="129"/>
-      <c r="L113" s="129"/>
-      <c r="M113" s="129"/>
-      <c r="N113" s="129"/>
-      <c r="O113" s="129"/>
-      <c r="P113" s="129"/>
-      <c r="Q113" s="129"/>
-      <c r="R113" s="129"/>
+      <c r="B113" s="108"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="108"/>
+      <c r="G113" s="108"/>
+      <c r="H113" s="108"/>
+      <c r="I113" s="108"/>
+      <c r="J113" s="108"/>
+      <c r="K113" s="108"/>
+      <c r="L113" s="108"/>
+      <c r="M113" s="108"/>
+      <c r="N113" s="108"/>
+      <c r="O113" s="108"/>
+      <c r="P113" s="108"/>
+      <c r="Q113" s="108"/>
+      <c r="R113" s="108"/>
       <c r="S113" s="79"/>
       <c r="T113" s="79"/>
       <c r="U113" s="79"/>
@@ -8438,10 +8562,10 @@
       </c>
       <c r="Z117" s="76"/>
       <c r="AU117" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="AV117" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8498,33 +8622,33 @@
       </c>
       <c r="Z118" s="81"/>
       <c r="AU118" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="AV118" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A120" s="128" t="s">
+      <c r="A120" s="107" t="s">
         <v>397</v>
       </c>
-      <c r="B120" s="129"/>
-      <c r="C120" s="129"/>
-      <c r="D120" s="129"/>
-      <c r="E120" s="129"/>
-      <c r="F120" s="129"/>
-      <c r="G120" s="129"/>
-      <c r="H120" s="129"/>
-      <c r="I120" s="129"/>
-      <c r="J120" s="129"/>
-      <c r="K120" s="129"/>
-      <c r="L120" s="129"/>
-      <c r="M120" s="129"/>
-      <c r="N120" s="129"/>
-      <c r="O120" s="129"/>
-      <c r="P120" s="129"/>
-      <c r="Q120" s="129"/>
-      <c r="R120" s="129"/>
+      <c r="B120" s="108"/>
+      <c r="C120" s="108"/>
+      <c r="D120" s="108"/>
+      <c r="E120" s="108"/>
+      <c r="F120" s="108"/>
+      <c r="G120" s="108"/>
+      <c r="H120" s="108"/>
+      <c r="I120" s="108"/>
+      <c r="J120" s="108"/>
+      <c r="K120" s="108"/>
+      <c r="L120" s="108"/>
+      <c r="M120" s="108"/>
+      <c r="N120" s="108"/>
+      <c r="O120" s="108"/>
+      <c r="P120" s="108"/>
+      <c r="Q120" s="108"/>
+      <c r="R120" s="108"/>
       <c r="S120" s="80"/>
       <c r="T120" s="80"/>
       <c r="U120" s="80"/>
@@ -8799,10 +8923,10 @@
       </c>
       <c r="Z124" s="76"/>
       <c r="AU124" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="AV124" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8859,33 +8983,33 @@
       </c>
       <c r="Z125" s="81"/>
       <c r="AU125" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="AV125" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A127" s="128" t="s">
+      <c r="A127" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="B127" s="129"/>
-      <c r="C127" s="129"/>
-      <c r="D127" s="129"/>
-      <c r="E127" s="129"/>
-      <c r="F127" s="129"/>
-      <c r="G127" s="129"/>
-      <c r="H127" s="129"/>
-      <c r="I127" s="129"/>
-      <c r="J127" s="129"/>
-      <c r="K127" s="129"/>
-      <c r="L127" s="129"/>
-      <c r="M127" s="129"/>
-      <c r="N127" s="129"/>
-      <c r="O127" s="129"/>
-      <c r="P127" s="129"/>
-      <c r="Q127" s="129"/>
-      <c r="R127" s="129"/>
+      <c r="B127" s="108"/>
+      <c r="C127" s="108"/>
+      <c r="D127" s="108"/>
+      <c r="E127" s="108"/>
+      <c r="F127" s="108"/>
+      <c r="G127" s="108"/>
+      <c r="H127" s="108"/>
+      <c r="I127" s="108"/>
+      <c r="J127" s="108"/>
+      <c r="K127" s="108"/>
+      <c r="L127" s="108"/>
+      <c r="M127" s="108"/>
+      <c r="N127" s="108"/>
+      <c r="O127" s="108"/>
+      <c r="P127" s="108"/>
+      <c r="Q127" s="108"/>
+      <c r="R127" s="108"/>
       <c r="S127" s="83"/>
       <c r="T127" s="83"/>
       <c r="U127" s="83"/>
@@ -9257,76 +9381,76 @@
       </c>
     </row>
     <row r="140" spans="1:47" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="104" t="s">
+      <c r="A140" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="B140" s="105"/>
-      <c r="C140" s="105"/>
-      <c r="D140" s="105"/>
-      <c r="E140" s="105"/>
-      <c r="F140" s="105"/>
-      <c r="G140" s="105"/>
-      <c r="H140" s="105"/>
-      <c r="I140" s="105"/>
-      <c r="J140" s="105"/>
-      <c r="K140" s="105"/>
-      <c r="L140" s="105"/>
+      <c r="B140" s="115"/>
+      <c r="C140" s="115"/>
+      <c r="D140" s="115"/>
+      <c r="E140" s="115"/>
+      <c r="F140" s="115"/>
+      <c r="G140" s="115"/>
+      <c r="H140" s="115"/>
+      <c r="I140" s="115"/>
+      <c r="J140" s="115"/>
+      <c r="K140" s="115"/>
+      <c r="L140" s="115"/>
     </row>
     <row r="141" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A141" s="117" t="s">
+      <c r="A141" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="B141" s="117" t="s">
+      <c r="B141" s="128" t="s">
         <v>343</v>
       </c>
-      <c r="C141" s="120" t="s">
+      <c r="C141" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D141" s="123" t="s">
+      <c r="D141" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="E141" s="126" t="s">
+      <c r="E141" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="F141" s="126"/>
-      <c r="G141" s="126"/>
-      <c r="H141" s="126"/>
-      <c r="I141" s="127" t="s">
+      <c r="F141" s="109"/>
+      <c r="G141" s="109"/>
+      <c r="H141" s="109"/>
+      <c r="I141" s="122" t="s">
         <v>346</v>
       </c>
-      <c r="J141" s="127"/>
-      <c r="K141" s="127"/>
-      <c r="L141" s="127"/>
+      <c r="J141" s="122"/>
+      <c r="K141" s="122"/>
+      <c r="L141" s="122"/>
     </row>
     <row r="142" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A142" s="118"/>
-      <c r="B142" s="118"/>
-      <c r="C142" s="121"/>
-      <c r="D142" s="124"/>
-      <c r="E142" s="109" t="s">
+      <c r="A142" s="129"/>
+      <c r="B142" s="129"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="126"/>
+      <c r="E142" s="123" t="s">
         <v>347</v>
       </c>
-      <c r="F142" s="111"/>
-      <c r="G142" s="112" t="s">
+      <c r="F142" s="124"/>
+      <c r="G142" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="H142" s="114"/>
-      <c r="I142" s="109" t="s">
+      <c r="H142" s="121"/>
+      <c r="I142" s="123" t="s">
         <v>347</v>
       </c>
-      <c r="J142" s="111"/>
-      <c r="K142" s="112" t="s">
+      <c r="J142" s="124"/>
+      <c r="K142" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="L142" s="114"/>
+      <c r="L142" s="121"/>
     </row>
     <row r="143" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A143" s="119"/>
-      <c r="B143" s="119" t="s">
+      <c r="A143" s="130"/>
+      <c r="B143" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="C143" s="122"/>
-      <c r="D143" s="125"/>
+      <c r="C143" s="118"/>
+      <c r="D143" s="127"/>
       <c r="E143" s="64" t="s">
         <v>348</v>
       </c>
@@ -9401,59 +9525,59 @@
       </c>
     </row>
     <row r="146" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A146" s="104"/>
-      <c r="B146" s="105"/>
-      <c r="C146" s="105"/>
-      <c r="D146" s="105"/>
-      <c r="E146" s="105"/>
-      <c r="F146" s="105"/>
-      <c r="G146" s="105"/>
-      <c r="H146" s="105"/>
-      <c r="I146" s="105"/>
-      <c r="J146" s="105"/>
+      <c r="A146" s="114"/>
+      <c r="B146" s="115"/>
+      <c r="C146" s="115"/>
+      <c r="D146" s="115"/>
+      <c r="E146" s="115"/>
+      <c r="F146" s="115"/>
+      <c r="G146" s="115"/>
+      <c r="H146" s="115"/>
+      <c r="I146" s="115"/>
+      <c r="J146" s="115"/>
     </row>
     <row r="147" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A147" s="84"/>
       <c r="B147" s="85"/>
-      <c r="C147" s="106" t="s">
+      <c r="C147" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="D147" s="106"/>
-      <c r="E147" s="106"/>
-      <c r="F147" s="106"/>
-      <c r="G147" s="106"/>
-      <c r="H147" s="106"/>
-      <c r="I147" s="106"/>
-      <c r="J147" s="106"/>
-      <c r="K147" s="106"/>
+      <c r="D147" s="119"/>
+      <c r="E147" s="119"/>
+      <c r="F147" s="119"/>
+      <c r="G147" s="119"/>
+      <c r="H147" s="119"/>
+      <c r="I147" s="119"/>
+      <c r="J147" s="119"/>
+      <c r="K147" s="119"/>
       <c r="Z147" s="69"/>
     </row>
     <row r="148" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A148" s="107" t="s">
+      <c r="A148" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="B148" s="107" t="s">
+      <c r="B148" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="C148" s="109" t="s">
+      <c r="C148" s="123" t="s">
         <v>335</v>
       </c>
-      <c r="D148" s="110"/>
-      <c r="E148" s="110"/>
-      <c r="F148" s="111"/>
-      <c r="G148" s="112" t="s">
+      <c r="D148" s="131"/>
+      <c r="E148" s="131"/>
+      <c r="F148" s="124"/>
+      <c r="G148" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="H148" s="113"/>
-      <c r="I148" s="113"/>
-      <c r="J148" s="114"/>
-      <c r="K148" s="115" t="s">
+      <c r="H148" s="132"/>
+      <c r="I148" s="132"/>
+      <c r="J148" s="121"/>
+      <c r="K148" s="112" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A149" s="108"/>
-      <c r="B149" s="108"/>
+      <c r="A149" s="111"/>
+      <c r="B149" s="111"/>
       <c r="C149" s="64" t="s">
         <v>337</v>
       </c>
@@ -9478,7 +9602,7 @@
       <c r="J149" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="K149" s="116"/>
+      <c r="K149" s="113"/>
     </row>
     <row r="150" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A150" s="55" t="s">
@@ -9520,26 +9644,26 @@
       <c r="K150" s="30"/>
     </row>
     <row r="152" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A152" s="128" t="s">
+      <c r="A152" s="107" t="s">
         <v>419</v>
       </c>
-      <c r="B152" s="129"/>
-      <c r="C152" s="129"/>
-      <c r="D152" s="129"/>
-      <c r="E152" s="129"/>
-      <c r="F152" s="129"/>
-      <c r="G152" s="129"/>
-      <c r="H152" s="129"/>
-      <c r="I152" s="129"/>
-      <c r="J152" s="129"/>
-      <c r="K152" s="129"/>
-      <c r="L152" s="129"/>
-      <c r="M152" s="129"/>
-      <c r="N152" s="129"/>
-      <c r="O152" s="129"/>
-      <c r="P152" s="129"/>
-      <c r="Q152" s="129"/>
-      <c r="R152" s="129"/>
+      <c r="B152" s="108"/>
+      <c r="C152" s="108"/>
+      <c r="D152" s="108"/>
+      <c r="E152" s="108"/>
+      <c r="F152" s="108"/>
+      <c r="G152" s="108"/>
+      <c r="H152" s="108"/>
+      <c r="I152" s="108"/>
+      <c r="J152" s="108"/>
+      <c r="K152" s="108"/>
+      <c r="L152" s="108"/>
+      <c r="M152" s="108"/>
+      <c r="N152" s="108"/>
+      <c r="O152" s="108"/>
+      <c r="P152" s="108"/>
+      <c r="Q152" s="108"/>
+      <c r="R152" s="108"/>
       <c r="S152" s="87"/>
       <c r="T152" s="87"/>
       <c r="U152" s="87"/>
@@ -9858,24 +9982,24 @@
       </c>
     </row>
     <row r="159" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A159" s="128"/>
-      <c r="B159" s="129"/>
-      <c r="C159" s="129"/>
-      <c r="D159" s="129"/>
-      <c r="E159" s="129"/>
-      <c r="F159" s="129"/>
-      <c r="G159" s="129"/>
-      <c r="H159" s="129"/>
-      <c r="I159" s="129"/>
-      <c r="J159" s="129"/>
-      <c r="K159" s="129"/>
-      <c r="L159" s="129"/>
-      <c r="M159" s="129"/>
-      <c r="N159" s="129"/>
-      <c r="O159" s="129"/>
-      <c r="P159" s="129"/>
-      <c r="Q159" s="129"/>
-      <c r="R159" s="129"/>
+      <c r="A159" s="107"/>
+      <c r="B159" s="108"/>
+      <c r="C159" s="108"/>
+      <c r="D159" s="108"/>
+      <c r="E159" s="108"/>
+      <c r="F159" s="108"/>
+      <c r="G159" s="108"/>
+      <c r="H159" s="108"/>
+      <c r="I159" s="108"/>
+      <c r="J159" s="108"/>
+      <c r="K159" s="108"/>
+      <c r="L159" s="108"/>
+      <c r="M159" s="108"/>
+      <c r="N159" s="108"/>
+      <c r="O159" s="108"/>
+      <c r="P159" s="108"/>
+      <c r="Q159" s="108"/>
+      <c r="R159" s="108"/>
       <c r="S159" s="87"/>
       <c r="T159" s="87"/>
       <c r="U159" s="87"/>
@@ -10000,24 +10124,24 @@
       </c>
     </row>
     <row r="162" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A162" s="128"/>
-      <c r="B162" s="129"/>
-      <c r="C162" s="129"/>
-      <c r="D162" s="129"/>
-      <c r="E162" s="129"/>
-      <c r="F162" s="129"/>
-      <c r="G162" s="129"/>
-      <c r="H162" s="129"/>
-      <c r="I162" s="129"/>
-      <c r="J162" s="129"/>
-      <c r="K162" s="129"/>
-      <c r="L162" s="129"/>
-      <c r="M162" s="129"/>
-      <c r="N162" s="129"/>
-      <c r="O162" s="129"/>
-      <c r="P162" s="129"/>
-      <c r="Q162" s="129"/>
-      <c r="R162" s="129"/>
+      <c r="A162" s="107"/>
+      <c r="B162" s="108"/>
+      <c r="C162" s="108"/>
+      <c r="D162" s="108"/>
+      <c r="E162" s="108"/>
+      <c r="F162" s="108"/>
+      <c r="G162" s="108"/>
+      <c r="H162" s="108"/>
+      <c r="I162" s="108"/>
+      <c r="J162" s="108"/>
+      <c r="K162" s="108"/>
+      <c r="L162" s="108"/>
+      <c r="M162" s="108"/>
+      <c r="N162" s="108"/>
+      <c r="O162" s="108"/>
+      <c r="P162" s="108"/>
+      <c r="Q162" s="108"/>
+      <c r="R162" s="108"/>
       <c r="S162" s="87"/>
       <c r="T162" s="87"/>
       <c r="U162" s="87"/>
@@ -10381,26 +10505,26 @@
       </c>
     </row>
     <row r="182" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A182" s="128" t="s">
+      <c r="A182" s="107" t="s">
         <v>442</v>
       </c>
-      <c r="B182" s="129"/>
-      <c r="C182" s="129"/>
-      <c r="D182" s="129"/>
-      <c r="E182" s="129"/>
-      <c r="F182" s="129"/>
-      <c r="G182" s="129"/>
-      <c r="H182" s="129"/>
-      <c r="I182" s="129"/>
-      <c r="J182" s="129"/>
-      <c r="K182" s="129"/>
-      <c r="L182" s="129"/>
-      <c r="M182" s="129"/>
-      <c r="N182" s="129"/>
-      <c r="O182" s="129"/>
-      <c r="P182" s="129"/>
-      <c r="Q182" s="129"/>
-      <c r="R182" s="129"/>
+      <c r="B182" s="108"/>
+      <c r="C182" s="108"/>
+      <c r="D182" s="108"/>
+      <c r="E182" s="108"/>
+      <c r="F182" s="108"/>
+      <c r="G182" s="108"/>
+      <c r="H182" s="108"/>
+      <c r="I182" s="108"/>
+      <c r="J182" s="108"/>
+      <c r="K182" s="108"/>
+      <c r="L182" s="108"/>
+      <c r="M182" s="108"/>
+      <c r="N182" s="108"/>
+      <c r="O182" s="108"/>
+      <c r="P182" s="108"/>
+      <c r="Q182" s="108"/>
+      <c r="R182" s="108"/>
       <c r="S182" s="92"/>
       <c r="T182" s="92"/>
       <c r="U182" s="92"/>
@@ -10563,10 +10687,10 @@
       </c>
       <c r="Z184" s="76"/>
       <c r="AU184" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="AV184" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
     </row>
     <row r="185" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10636,31 +10760,31 @@
       </c>
       <c r="Z185" s="76"/>
       <c r="AU185" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="AV185" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
     </row>
     <row r="186" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A186" s="128"/>
-      <c r="B186" s="129"/>
-      <c r="C186" s="129"/>
-      <c r="D186" s="129"/>
-      <c r="E186" s="129"/>
-      <c r="F186" s="129"/>
-      <c r="G186" s="129"/>
-      <c r="H186" s="129"/>
-      <c r="I186" s="129"/>
-      <c r="J186" s="129"/>
-      <c r="K186" s="129"/>
-      <c r="L186" s="129"/>
-      <c r="M186" s="129"/>
-      <c r="N186" s="129"/>
-      <c r="O186" s="129"/>
-      <c r="P186" s="129"/>
-      <c r="Q186" s="129"/>
-      <c r="R186" s="129"/>
+      <c r="A186" s="107"/>
+      <c r="B186" s="108"/>
+      <c r="C186" s="108"/>
+      <c r="D186" s="108"/>
+      <c r="E186" s="108"/>
+      <c r="F186" s="108"/>
+      <c r="G186" s="108"/>
+      <c r="H186" s="108"/>
+      <c r="I186" s="108"/>
+      <c r="J186" s="108"/>
+      <c r="K186" s="108"/>
+      <c r="L186" s="108"/>
+      <c r="M186" s="108"/>
+      <c r="N186" s="108"/>
+      <c r="O186" s="108"/>
+      <c r="P186" s="108"/>
+      <c r="Q186" s="108"/>
+      <c r="R186" s="108"/>
       <c r="S186" s="94"/>
       <c r="T186" s="94"/>
       <c r="U186" s="94"/>
@@ -10724,31 +10848,31 @@
       </c>
       <c r="Z187" s="76"/>
       <c r="AU187" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="AV187" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
     </row>
     <row r="188" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A188" s="128"/>
-      <c r="B188" s="129"/>
-      <c r="C188" s="129"/>
-      <c r="D188" s="129"/>
-      <c r="E188" s="129"/>
-      <c r="F188" s="129"/>
-      <c r="G188" s="129"/>
-      <c r="H188" s="129"/>
-      <c r="I188" s="129"/>
-      <c r="J188" s="129"/>
-      <c r="K188" s="129"/>
-      <c r="L188" s="129"/>
-      <c r="M188" s="129"/>
-      <c r="N188" s="129"/>
-      <c r="O188" s="129"/>
-      <c r="P188" s="129"/>
-      <c r="Q188" s="129"/>
-      <c r="R188" s="129"/>
+      <c r="A188" s="107"/>
+      <c r="B188" s="108"/>
+      <c r="C188" s="108"/>
+      <c r="D188" s="108"/>
+      <c r="E188" s="108"/>
+      <c r="F188" s="108"/>
+      <c r="G188" s="108"/>
+      <c r="H188" s="108"/>
+      <c r="I188" s="108"/>
+      <c r="J188" s="108"/>
+      <c r="K188" s="108"/>
+      <c r="L188" s="108"/>
+      <c r="M188" s="108"/>
+      <c r="N188" s="108"/>
+      <c r="O188" s="108"/>
+      <c r="P188" s="108"/>
+      <c r="Q188" s="108"/>
+      <c r="R188" s="108"/>
       <c r="S188" s="94"/>
       <c r="T188" s="94"/>
       <c r="U188" s="94"/>
@@ -10812,10 +10936,10 @@
       </c>
       <c r="Z189" s="76"/>
       <c r="AU189" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="AV189" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
     </row>
     <row r="191" spans="1:48" x14ac:dyDescent="0.35">
@@ -10971,76 +11095,76 @@
       </c>
     </row>
     <row r="199" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="104" t="s">
+      <c r="A199" s="114" t="s">
         <v>342</v>
       </c>
-      <c r="B199" s="105"/>
-      <c r="C199" s="105"/>
-      <c r="D199" s="105"/>
-      <c r="E199" s="105"/>
-      <c r="F199" s="105"/>
-      <c r="G199" s="105"/>
-      <c r="H199" s="105"/>
-      <c r="I199" s="105"/>
-      <c r="J199" s="105"/>
-      <c r="K199" s="105"/>
-      <c r="L199" s="105"/>
+      <c r="B199" s="115"/>
+      <c r="C199" s="115"/>
+      <c r="D199" s="115"/>
+      <c r="E199" s="115"/>
+      <c r="F199" s="115"/>
+      <c r="G199" s="115"/>
+      <c r="H199" s="115"/>
+      <c r="I199" s="115"/>
+      <c r="J199" s="115"/>
+      <c r="K199" s="115"/>
+      <c r="L199" s="115"/>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A200" s="117" t="s">
+      <c r="A200" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="B200" s="117" t="s">
+      <c r="B200" s="128" t="s">
         <v>343</v>
       </c>
-      <c r="C200" s="120" t="s">
+      <c r="C200" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="D200" s="123" t="s">
+      <c r="D200" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="E200" s="126" t="s">
+      <c r="E200" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="F200" s="126"/>
-      <c r="G200" s="126"/>
-      <c r="H200" s="126"/>
-      <c r="I200" s="127" t="s">
+      <c r="F200" s="109"/>
+      <c r="G200" s="109"/>
+      <c r="H200" s="109"/>
+      <c r="I200" s="122" t="s">
         <v>346</v>
       </c>
-      <c r="J200" s="127"/>
-      <c r="K200" s="127"/>
-      <c r="L200" s="127"/>
+      <c r="J200" s="122"/>
+      <c r="K200" s="122"/>
+      <c r="L200" s="122"/>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A201" s="118"/>
-      <c r="B201" s="118"/>
-      <c r="C201" s="121"/>
-      <c r="D201" s="124"/>
-      <c r="E201" s="109" t="s">
+      <c r="A201" s="129"/>
+      <c r="B201" s="129"/>
+      <c r="C201" s="117"/>
+      <c r="D201" s="126"/>
+      <c r="E201" s="123" t="s">
         <v>347</v>
       </c>
-      <c r="F201" s="111"/>
-      <c r="G201" s="112" t="s">
+      <c r="F201" s="124"/>
+      <c r="G201" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="H201" s="114"/>
-      <c r="I201" s="109" t="s">
+      <c r="H201" s="121"/>
+      <c r="I201" s="123" t="s">
         <v>347</v>
       </c>
-      <c r="J201" s="111"/>
-      <c r="K201" s="112" t="s">
+      <c r="J201" s="124"/>
+      <c r="K201" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="L201" s="114"/>
+      <c r="L201" s="121"/>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A202" s="119"/>
-      <c r="B202" s="119" t="s">
+      <c r="A202" s="130"/>
+      <c r="B202" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="C202" s="122"/>
-      <c r="D202" s="125"/>
+      <c r="C202" s="118"/>
+      <c r="D202" s="127"/>
       <c r="E202" s="64" t="s">
         <v>348</v>
       </c>
@@ -11115,71 +11239,71 @@
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A205" s="104" t="s">
+      <c r="A205" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="B205" s="105"/>
-      <c r="C205" s="105"/>
-      <c r="D205" s="105"/>
-      <c r="E205" s="105"/>
-      <c r="F205" s="105"/>
-      <c r="G205" s="105"/>
-      <c r="H205" s="105"/>
-      <c r="I205" s="105"/>
-      <c r="J205" s="105"/>
+      <c r="B205" s="115"/>
+      <c r="C205" s="115"/>
+      <c r="D205" s="115"/>
+      <c r="E205" s="115"/>
+      <c r="F205" s="115"/>
+      <c r="G205" s="115"/>
+      <c r="H205" s="115"/>
+      <c r="I205" s="115"/>
+      <c r="J205" s="115"/>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A206" s="96"/>
       <c r="B206" s="97"/>
-      <c r="C206" s="106" t="s">
+      <c r="C206" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="D206" s="106"/>
-      <c r="E206" s="106"/>
-      <c r="F206" s="106"/>
-      <c r="G206" s="106"/>
-      <c r="H206" s="106"/>
-      <c r="I206" s="106"/>
-      <c r="J206" s="106"/>
-      <c r="K206" s="106"/>
-      <c r="L206" s="101" t="s">
+      <c r="D206" s="119"/>
+      <c r="E206" s="119"/>
+      <c r="F206" s="119"/>
+      <c r="G206" s="119"/>
+      <c r="H206" s="119"/>
+      <c r="I206" s="119"/>
+      <c r="J206" s="119"/>
+      <c r="K206" s="119"/>
+      <c r="L206" s="141" t="s">
         <v>448</v>
       </c>
-      <c r="M206" s="102"/>
-      <c r="N206" s="102"/>
+      <c r="M206" s="142"/>
+      <c r="N206" s="142"/>
       <c r="Z206" s="69"/>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A207" s="107" t="s">
+      <c r="A207" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="B207" s="107" t="s">
+      <c r="B207" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="C207" s="109" t="s">
+      <c r="C207" s="123" t="s">
         <v>335</v>
       </c>
-      <c r="D207" s="110"/>
-      <c r="E207" s="110"/>
-      <c r="F207" s="111"/>
-      <c r="G207" s="112" t="s">
+      <c r="D207" s="131"/>
+      <c r="E207" s="131"/>
+      <c r="F207" s="124"/>
+      <c r="G207" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="H207" s="113"/>
-      <c r="I207" s="113"/>
-      <c r="J207" s="114"/>
-      <c r="K207" s="115" t="s">
+      <c r="H207" s="132"/>
+      <c r="I207" s="132"/>
+      <c r="J207" s="121"/>
+      <c r="K207" s="112" t="s">
         <v>354</v>
       </c>
-      <c r="L207" s="101" t="s">
+      <c r="L207" s="141" t="s">
         <v>332</v>
       </c>
-      <c r="M207" s="102"/>
-      <c r="N207" s="103"/>
+      <c r="M207" s="142"/>
+      <c r="N207" s="143"/>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A208" s="108"/>
-      <c r="B208" s="108"/>
+      <c r="A208" s="111"/>
+      <c r="B208" s="111"/>
       <c r="C208" s="64" t="s">
         <v>337</v>
       </c>
@@ -11204,7 +11328,7 @@
       <c r="J208" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="K208" s="116"/>
+      <c r="K208" s="113"/>
       <c r="L208" s="98" t="s">
         <v>337</v>
       </c>
@@ -11638,10 +11762,10 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="73" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B234" s="55" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="C234" s="72" t="s">
         <v>315</v>
@@ -11649,6 +11773,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="L206:N206"/>
+    <mergeCell ref="L207:N207"/>
+    <mergeCell ref="A205:J205"/>
+    <mergeCell ref="C206:K206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:F207"/>
+    <mergeCell ref="G207:J207"/>
+    <mergeCell ref="K207:K208"/>
+    <mergeCell ref="A199:L199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="D200:D202"/>
+    <mergeCell ref="E200:H200"/>
+    <mergeCell ref="I200:L200"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="A186:R186"/>
+    <mergeCell ref="A188:R188"/>
+    <mergeCell ref="A182:R182"/>
+    <mergeCell ref="A152:R152"/>
+    <mergeCell ref="A159:R159"/>
+    <mergeCell ref="A162:R162"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="A103:J103"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="C147:K147"/>
+    <mergeCell ref="A146:J146"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="G148:J148"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="A127:R127"/>
+    <mergeCell ref="A140:L140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:H141"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="K142:L142"/>
     <mergeCell ref="AG88:AL88"/>
     <mergeCell ref="T88:V88"/>
     <mergeCell ref="W88:X88"/>
@@ -11665,65 +11848,6 @@
     <mergeCell ref="K99:L99"/>
     <mergeCell ref="I98:L98"/>
     <mergeCell ref="E99:F99"/>
-    <mergeCell ref="A127:R127"/>
-    <mergeCell ref="A140:L140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:H141"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="I142:J142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="C147:K147"/>
-    <mergeCell ref="A146:J146"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="G148:J148"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="G105:J105"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="A103:J103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="A186:R186"/>
-    <mergeCell ref="A188:R188"/>
-    <mergeCell ref="A182:R182"/>
-    <mergeCell ref="A152:R152"/>
-    <mergeCell ref="A159:R159"/>
-    <mergeCell ref="A162:R162"/>
-    <mergeCell ref="A199:L199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="E200:H200"/>
-    <mergeCell ref="I200:L200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="L206:N206"/>
-    <mergeCell ref="L207:N207"/>
-    <mergeCell ref="A205:J205"/>
-    <mergeCell ref="C206:K206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:F207"/>
-    <mergeCell ref="G207:J207"/>
-    <mergeCell ref="K207:K208"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C62 OCX129:OCX130 NTB129:NTB130 NJF129:NJF130 MZJ129:MZJ130 MPN129:MPN130 MFR129:MFR130 LVV129:LVV130 LLZ129:LLZ130 KSH129:KSH130 KIL129:KIL130 JYP129:JYP130 JOT129:JOT130 JEX129:JEX130 IVB129:IVB130 ILF129:ILF130 IBJ129:IBJ130 HRN129:HRN130 HHR129:HHR130 GXV129:GXV130 GNZ129:GNZ130 GED129:GED130 FUH129:FUH130 FKL129:FKL130 LCD129:LCD130 FAP129:FAP130 EQT129:EQT130 EGX129:EGX130 DXB129:DXB130 DNF129:DNF130 DDJ129:DDJ130 CTN129:CTN130 CJR129:CJR130 BZV129:BZV130 BPZ129:BPZ130 BGD129:BGD130 AWH129:AWH130 AML129:AML130 ACP129:ACP130 ST129:ST130 IX129:IX130 WVJ129:WVJ130 WLN129:WLN130 WBR129:WBR130 VRV129:VRV130 VHZ129:VHZ130 UYD129:UYD130 UOH129:UOH130 UEL129:UEL130 TUP129:TUP130 TKT129:TKT130 TAX129:TAX130 SRB129:SRB130 SHF129:SHF130 RXJ129:RXJ130 RNN129:RNN130 RDR129:RDR130 QTV129:QTV130 QJZ129:QJZ130 QAD129:QAD130 PQH129:PQH130 PGL129:PGL130 OWP129:OWP130 OMT129:OMT130 MPN115:MPN118 MZJ115:MZJ118 NJF115:NJF118 NTB115:NTB118 OCX115:OCX118 OMT115:OMT118 OWP115:OWP118 PGL115:PGL118 PQH115:PQH118 QAD115:QAD118 QJZ115:QJZ118 QTV115:QTV118 RDR115:RDR118 RNN115:RNN118 RXJ115:RXJ118 SHF115:SHF118 SRB115:SRB118 TAX115:TAX118 TKT115:TKT118 TUP115:TUP118 UEL115:UEL118 UOH115:UOH118 UYD115:UYD118 VHZ115:VHZ118 VRV115:VRV118 WBR115:WBR118 WLN115:WLN118 WVJ115:WVJ118 IX115:IX118 ST115:ST118 ACP115:ACP118 AML115:AML118 AWH115:AWH118 BGD115:BGD118 BPZ115:BPZ118 BZV115:BZV118 CJR115:CJR118 CTN115:CTN118 DDJ115:DDJ118 DNF115:DNF118 DXB115:DXB118 EGX115:EGX118 EQT115:EQT118 FAP115:FAP118 LCD115:LCD118 FKL115:FKL118 FUH115:FUH118 GED115:GED118 GNZ115:GNZ118 GXV115:GXV118 HHR115:HHR118 HRN115:HRN118 IBJ115:IBJ118 ILF115:ILF118 IVB115:IVB118 JEX115:JEX118 JOT115:JOT118 JYP115:JYP118 KIL115:KIL118 KSH115:KSH118 LLZ115:LLZ118 LVV115:LVV118 MFR115:MFR118 MZJ122:MZJ125 NJF122:NJF125 NTB122:NTB125 OCX122:OCX125 OMT122:OMT125 OWP122:OWP125 PGL122:PGL125 PQH122:PQH125 QAD122:QAD125 QJZ122:QJZ125 QTV122:QTV125 RDR122:RDR125 RNN122:RNN125 RXJ122:RXJ125 SHF122:SHF125 SRB122:SRB125 TAX122:TAX125 TKT122:TKT125 TUP122:TUP125 UEL122:UEL125 UOH122:UOH125 UYD122:UYD125 VHZ122:VHZ125 VRV122:VRV125 WBR122:WBR125 WLN122:WLN125 WVJ122:WVJ125 IX122:IX125 ST122:ST125 ACP122:ACP125 AML122:AML125 AWH122:AWH125 BGD122:BGD125 BPZ122:BPZ125 BZV122:BZV125 CJR122:CJR125 CTN122:CTN125 DDJ122:DDJ125 DNF122:DNF125 DXB122:DXB125 EGX122:EGX125 EQT122:EQT125 FAP122:FAP125 LCD122:LCD125 FKL122:FKL125 FUH122:FUH125 GED122:GED125 GNZ122:GNZ125 GXV122:GXV125 HHR122:HHR125 HRN122:HRN125 IBJ122:IBJ125 ILF122:ILF125 IVB122:IVB125 JEX122:JEX125 JOT122:JOT125 JYP122:JYP125 KIL122:KIL125 KSH122:KSH125 LLZ122:LLZ125 LVV122:LVV125 MFR122:MFR125 MPN122:MPN125 OCX163:OCX164 NTB163:NTB164 NJF163:NJF164 MZJ163:MZJ164 MPN163:MPN164 MFR163:MFR164 LVV163:LVV164 LLZ163:LLZ164 KSH163:KSH164 KIL163:KIL164 JYP163:JYP164 JOT163:JOT164 JEX163:JEX164 IVB163:IVB164 ILF163:ILF164 IBJ163:IBJ164 HRN163:HRN164 HHR163:HHR164 GXV163:GXV164 GNZ163:GNZ164 GED163:GED164 FUH163:FUH164 FKL163:FKL164 LCD163:LCD164 FAP163:FAP164 EQT163:EQT164 EGX163:EGX164 DXB163:DXB164 DNF163:DNF164 DDJ163:DDJ164 CTN163:CTN164 CJR163:CJR164 BZV163:BZV164 BPZ163:BPZ164 BGD163:BGD164 AWH163:AWH164 AML163:AML164 ACP163:ACP164 ST163:ST164 IX163:IX164 WVJ163:WVJ164 WLN163:WLN164 WBR163:WBR164 VRV163:VRV164 VHZ163:VHZ164 UYD163:UYD164 UOH163:UOH164 UEL163:UEL164 TUP163:TUP164 TKT163:TKT164 TAX163:TAX164 SRB163:SRB164 SHF163:SHF164 RXJ163:RXJ164 RNN163:RNN164 RDR163:RDR164 QTV163:QTV164 QJZ163:QJZ164 QAD163:QAD164 PQH163:PQH164 PGL163:PGL164 OWP163:OWP164 OMT163:OMT164 MPN157:MPN158 MZJ157:MZJ158 NJF157:NJF158 NTB157:NTB158 OCX157:OCX158 OMT157:OMT158 OWP157:OWP158 PGL157:PGL158 PQH157:PQH158 QAD157:QAD158 QJZ157:QJZ158 QTV157:QTV158 RDR157:RDR158 RNN157:RNN158 RXJ157:RXJ158 SHF157:SHF158 SRB157:SRB158 TAX157:TAX158 TKT157:TKT158 TUP157:TUP158 UEL157:UEL158 UOH157:UOH158 UYD157:UYD158 VHZ157:VHZ158 VRV157:VRV158 WBR157:WBR158 WLN157:WLN158 WVJ157:WVJ158 IX157:IX158 ST157:ST158 ACP157:ACP158 AML157:AML158 AWH157:AWH158 BGD157:BGD158 BPZ157:BPZ158 BZV157:BZV158 CJR157:CJR158 CTN157:CTN158 DDJ157:DDJ158 DNF157:DNF158 DXB157:DXB158 EGX157:EGX158 EQT157:EQT158 FAP157:FAP158 LCD157:LCD158 FKL157:FKL158 FUH157:FUH158 GED157:GED158 GNZ157:GNZ158 GXV157:GXV158 HHR157:HHR158 HRN157:HRN158 IBJ157:IBJ158 ILF157:ILF158 IVB157:IVB158 JEX157:JEX158 JOT157:JOT158 JYP157:JYP158 KIL157:KIL158 KSH157:KSH158 LLZ157:LLZ158 LVV157:LVV158 MFR157:MFR158 MZJ160:MZJ161 NJF160:NJF161 NTB160:NTB161 OCX160:OCX161 OMT160:OMT161 OWP160:OWP161 PGL160:PGL161 PQH160:PQH161 QAD160:QAD161 QJZ160:QJZ161 QTV160:QTV161 RDR160:RDR161 RNN160:RNN161 RXJ160:RXJ161 SHF160:SHF161 SRB160:SRB161 TAX160:TAX161 TKT160:TKT161 TUP160:TUP161 UEL160:UEL161 UOH160:UOH161 UYD160:UYD161 VHZ160:VHZ161 VRV160:VRV161 WBR160:WBR161 WLN160:WLN161 WVJ160:WVJ161 IX160:IX161 ST160:ST161 ACP160:ACP161 AML160:AML161 AWH160:AWH161 BGD160:BGD161 BPZ160:BPZ161 BZV160:BZV161 CJR160:CJR161 CTN160:CTN161 DDJ160:DDJ161 DNF160:DNF161 DXB160:DXB161 EGX160:EGX161 EQT160:EQT161 FAP160:FAP161 LCD160:LCD161 FKL160:FKL161 FUH160:FUH161 GED160:GED161 GNZ160:GNZ161 GXV160:GXV161 HHR160:HHR161 HRN160:HRN161 IBJ160:IBJ161 ILF160:ILF161 IVB160:IVB161 JEX160:JEX161 JOT160:JOT161 JYP160:JYP161 KIL160:KIL161 KSH160:KSH161 LLZ160:LLZ161 LVV160:LVV161 MFR160:MFR161 MPN160:MPN161 MFR184:MFR185 LVV184:LVV185 LLZ184:LLZ185 KSH184:KSH185 KIL184:KIL185 JYP184:JYP185 JOT184:JOT185 JEX184:JEX185 IVB184:IVB185 ILF184:ILF185 IBJ184:IBJ185 HRN184:HRN185 HHR184:HHR185 GXV184:GXV185 GNZ184:GNZ185 GED184:GED185 FUH184:FUH185 FKL184:FKL185 LCD184:LCD185 FAP184:FAP185 EQT184:EQT185 EGX184:EGX185 DXB184:DXB185 DNF184:DNF185 DDJ184:DDJ185 CTN184:CTN185 CJR184:CJR185 BZV184:BZV185 BPZ184:BPZ185 BGD184:BGD185 AWH184:AWH185 AML184:AML185 ACP184:ACP185 ST184:ST185 IX184:IX185 WVJ184:WVJ185 WLN184:WLN185 WBR184:WBR185 VRV184:VRV185 VHZ184:VHZ185 UYD184:UYD185 UOH184:UOH185 UEL184:UEL185 TUP184:TUP185 TKT184:TKT185 TAX184:TAX185 SRB184:SRB185 SHF184:SHF185 RXJ184:RXJ185 RNN184:RNN185 RDR184:RDR185 QTV184:QTV185 QJZ184:QJZ185 QAD184:QAD185 PQH184:PQH185 PGL184:PGL185 OWP184:OWP185 OMT184:OMT185 OCX184:OCX185 NTB184:NTB185 NJF184:NJF185 MZJ184:MZJ185 MPN184:MPN185 NJF187 NTB187 OCX187 OMT187 OWP187 PGL187 PQH187 QAD187 QJZ187 QTV187 RDR187 RNN187 RXJ187 SHF187 SRB187 TAX187 TKT187 TUP187 UEL187 UOH187 UYD187 VHZ187 VRV187 WBR187 WLN187 WVJ187 IX187 ST187 ACP187 AML187 AWH187 BGD187 BPZ187 BZV187 CJR187 CTN187 DDJ187 DNF187 DXB187 EGX187 EQT187 FAP187 LCD187 FKL187 FUH187 GED187 GNZ187 GXV187 HHR187 HRN187 IBJ187 ILF187 IVB187 JEX187 JOT187 JYP187 KIL187 KSH187 LLZ187 LVV187 MFR187 MPN187 MZJ187 NJF189 NTB189 OCX189 OMT189 OWP189 PGL189 PQH189 QAD189 QJZ189 QTV189 RDR189 RNN189 RXJ189 SHF189 SRB189 TAX189 TKT189 TUP189 UEL189 UOH189 UYD189 VHZ189 VRV189 WBR189 WLN189 WVJ189 IX189 ST189 ACP189 AML189 AWH189 BGD189 BPZ189 BZV189 CJR189 CTN189 DDJ189 DNF189 DXB189 EGX189 EQT189 FAP189 LCD189 FKL189 FUH189 GED189 GNZ189 GXV189 HHR189 HRN189 IBJ189 ILF189 IVB189 JEX189 JOT189 JYP189 KIL189 KSH189 LLZ189 LVV189 MFR189 MPN189 MZJ189">
@@ -11755,13 +11879,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_Stacking_39768.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_Stacking_39768.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="537">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1654,6 +1654,54 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9717923959","modelId":"7886427866","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8910014240","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5163394496","dealId":"9767231729","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"5163394496","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7660014304","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5163394496","dealId":"9767231729","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7668600536","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7668600537","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7668600538","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7660014304","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"5163394496","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7660014305","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7668600536","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7668600537","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7668600538","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5163394496","dealId":"9767231729","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"5163394496","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7660014306","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5163394496","dealId":"9767231729","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7668600542","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7668600543","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7668600544","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7660014306","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"5163394496","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7660014307","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7668600542","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7668600543","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7668600544","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2465855832","dealId":"9767231729","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3878600548","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3878600549","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3878600550","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3870014308","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"2465855832","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3870014312","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","endDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3878600548","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3878600549","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3878600550","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2465855832","dealId":"9767231729","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3878600548","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3878600549","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3878600550","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-08","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3870014308","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"2465855832","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3870014308","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","endDate":"2023-09-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3878600548","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3878600549","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3878600550","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2465855832","dealId":"9767231729","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"2465855832","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3870014313","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2465855832","dealId":"9767231729","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-10","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"2465855832","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3870014314","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -8562,10 +8610,10 @@
       </c>
       <c r="Z117" s="76"/>
       <c r="AU117" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="AV117" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8622,10 +8670,10 @@
       </c>
       <c r="Z118" s="81"/>
       <c r="AU118" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="AV118" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.35">
@@ -8923,10 +8971,10 @@
       </c>
       <c r="Z124" s="76"/>
       <c r="AU124" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="AV124" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8983,10 +9031,10 @@
       </c>
       <c r="Z125" s="81"/>
       <c r="AU125" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="AV125" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="1:48" x14ac:dyDescent="0.35">
@@ -10687,10 +10735,10 @@
       </c>
       <c r="Z184" s="76"/>
       <c r="AU184" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="AV184" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10760,10 +10808,10 @@
       </c>
       <c r="Z185" s="76"/>
       <c r="AU185" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="AV185" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="1:48" x14ac:dyDescent="0.35">
@@ -10848,10 +10896,10 @@
       </c>
       <c r="Z187" s="76"/>
       <c r="AU187" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="AV187" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
     </row>
     <row r="188" spans="1:48" x14ac:dyDescent="0.35">
@@ -10936,10 +10984,10 @@
       </c>
       <c r="Z189" s="76"/>
       <c r="AU189" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="AV189" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="1:48" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_Stacking_39768.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_Stacking_39768.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="569">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1702,6 +1702,102 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9767231729","modelId":"2465855832","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3870014314","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5140088439","dealId":"0242230581","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0242230581","modelId":"5140088439","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0150014500","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5140088439","dealId":"0242230581","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0158600963","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0158600964","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0158600965","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"0150014500","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0242230581","modelId":"5140088439","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0150014501","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0158600963","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0158600964","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0158600965","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5140088439","dealId":"0242230581","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0242230581","modelId":"5140088439","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0150014502","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5140088439","dealId":"0242230581","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"0158600969","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"0158600970","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"0158600971","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"0150014502","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0242230581","modelId":"5140088439","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"0150014503","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0158600969","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0158600970","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"0158600971","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6757516456","dealId":"0242230581","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7938600975","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7938600976","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7938600977","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-09","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7930014504","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0242230581","modelId":"6757516456","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7930014508","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","endDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7938600975","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7938600976","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7938600977","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6757516456","dealId":"0242230581","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7938600975","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7938600976","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7938600977","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-09","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7930014504","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0242230581","modelId":"6757516456","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7930014504","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","endDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7938600975","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7938600976","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7938600977","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6757516456","dealId":"0242230581","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0242230581","modelId":"6757516456","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7930014509","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6757516456","dealId":"0242230581","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-11","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0242230581","modelId":"6757516456","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7930014510","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6191345485","dealId":"3643646255","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400004","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400005","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400006","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5410009241","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3643646255","modelId":"6191345485","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3130014798","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400004","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400005","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400006","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6191345485","dealId":"3643646255","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3138601504","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3138601505","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3138601506","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3130014798","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3643646255","modelId":"6191345485","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3130014799","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3138601504","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3138601505","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3138601506","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6191345485","dealId":"3643646255","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5417400010","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5417400011","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5417400012","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5410009242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3643646255","modelId":"6191345485","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3130014800","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400010","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400011","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5417400012","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6191345485","dealId":"3643646255","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3138601510","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3138601511","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3138601512","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"3130014800","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3643646255","modelId":"6191345485","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3130014801","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3138601510","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3138601511","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3138601512","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9750019121","dealId":"3643646255","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3778601516","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3778601517","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3778601518","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-10","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3770014802","pricingStatus":"RECM","printIfZero":"Y","ignoreSw":"N","actionFlag":"RECM","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3643646255","modelId":"9750019121","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3770014806","actionFlag":"RECM","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"RECM","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","endDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3778601516","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3778601517","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3778601518","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9750019121","dealId":"3643646255","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"3778601516","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"3778601517","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"3778601518","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","endDate":"2023-09-10","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"3770014802","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"UPD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3643646255","modelId":"9750019121","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3770014802","actionFlag":"UPD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","endDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3778601516","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"13","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3778601517","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"3778601518","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9750019121","dealId":"3643646255","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300004","valueAmt":"11","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V1-Account Opening Fee","aggregateSw":"Y","priceItemCode":"PI_021","priceCurrencyCode":"USD","priceAsgnId":"5410009202","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3643646255","modelId":"9750019121","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3770014807","actionFlag":"OVRD","priceItemCode":"PI_021","priceItemDescription":"V1-Account Opening Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300004","priceCompDesc":"FLAT","valueAmt":"11","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"9750019121","dealId":"3643646255","entityType":"PERS","entityId":"0070573193","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"0070573193","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":{"priceCompId":"5417300006","valueAmt":"10","priceCompDesc":"FLAT","rcMapId":"1705351562","displaySw":"true","tieredFlag":"FLAT","priceCompSequenceNo":"10"},"paTypeFlag":"RGLR","priceItemDescription":"V2-Monthly Acct Serv Fee","aggregateSw":"Y","priceItemCode":"PI_022","priceCurrencyCode":"USD","priceAsgnId":"5410009203","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-RT01","startDate":"2023-08-12","assignmentLevel":"Parent Customer Price List"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"3643646255","modelId":"9750019121","entityId":"0070573193","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"0070573193","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT_CH1","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"3770014808","actionFlag":"OVRD","priceItemCode":"PI_022","priceItemDescription":"V2-Monthly Acct Serv Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-RT01","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Parent Customer Price List","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":{"priceCompId":"5417300006","priceCompDesc":"FLAT","valueAmt":"10","displaySw":"true","rcMapId":"1705351562","tieredFlag":"FLAT","priceCompSequenceNo":"10"}}}}}</t>
   </si>
 </sst>
 </file>
@@ -8610,10 +8706,10 @@
       </c>
       <c r="Z117" s="76"/>
       <c r="AU117" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="AV117" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8670,10 +8766,10 @@
       </c>
       <c r="Z118" s="81"/>
       <c r="AU118" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="AV118" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
     </row>
     <row r="120" spans="1:48" x14ac:dyDescent="0.35">
@@ -8971,10 +9067,10 @@
       </c>
       <c r="Z124" s="76"/>
       <c r="AU124" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="AV124" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -9031,10 +9127,10 @@
       </c>
       <c r="Z125" s="81"/>
       <c r="AU125" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="AV125" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
     </row>
     <row r="127" spans="1:48" x14ac:dyDescent="0.35">
@@ -10735,10 +10831,10 @@
       </c>
       <c r="Z184" s="76"/>
       <c r="AU184" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="AV184" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -10808,10 +10904,10 @@
       </c>
       <c r="Z185" s="76"/>
       <c r="AU185" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="AV185" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186" spans="1:48" x14ac:dyDescent="0.35">
@@ -10896,10 +10992,10 @@
       </c>
       <c r="Z187" s="76"/>
       <c r="AU187" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="AV187" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188" spans="1:48" x14ac:dyDescent="0.35">
@@ -10984,10 +11080,10 @@
       </c>
       <c r="Z189" s="76"/>
       <c r="AU189" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="AV189" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:48" x14ac:dyDescent="0.35">
